--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1341022.638049172</v>
+        <v>1338263.517354364</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30577256.47093887</v>
+        <v>30577256.47093888</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4213780.100230897</v>
+        <v>4213780.100230898</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>420.9552467863348</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>140.9006682681003</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>45.94566896931875</v>
+        <v>45.94566896931876</v>
       </c>
       <c r="T12" t="n">
         <v>125.2149158263212</v>
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.3779285157353</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.1736961797558</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T13" t="n">
-        <v>240.1662606755367</v>
+        <v>202.781381759563</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6071253188071</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>171.0435285550495</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>111.4909075289026</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>268.8491716889096</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>45.94566896931875</v>
+        <v>45.94566896931876</v>
       </c>
       <c r="T15" t="n">
         <v>125.2149158263212</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>2.317504803963844</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>6.421393900219227</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>111.3243042607448</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>58.57110615697316</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H17" t="n">
         <v>268.8491716889096</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2058,13 +2058,13 @@
         <v>240.1662606755367</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6071253188071</v>
+        <v>188.6978815897042</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>182.3968966404679</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H20" t="n">
         <v>268.8491716889096</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>19.4992083346642</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>17.53472311197507</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.1736961797558</v>
+        <v>141.1324269493207</v>
       </c>
       <c r="H22" t="n">
         <v>131.7312490056928</v>
       </c>
       <c r="I22" t="n">
-        <v>64.86797449866764</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>144.3751931273316</v>
       </c>
       <c r="T22" t="n">
-        <v>153.2570169464333</v>
+        <v>240.1662606755367</v>
       </c>
       <c r="U22" t="n">
         <v>275.6071253188071</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>44.12209369564515</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T23" t="n">
         <v>210.4335432615606</v>
       </c>
       <c r="U23" t="n">
-        <v>256.494239352891</v>
+        <v>256.4942393528913</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>44.12209369564515</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T29" t="n">
         <v>210.4335432615606</v>
       </c>
       <c r="U29" t="n">
-        <v>256.494239352891</v>
+        <v>256.4942393528904</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.12209369564515</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T32" t="n">
         <v>210.4335432615606</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4942393528913</v>
+        <v>256.4942393528921</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3280,10 +3280,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>242.26180110524</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.12209369564515</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7443879140862</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>77.30996914139001</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.1736961797558</v>
       </c>
       <c r="H37" t="n">
-        <v>109.6899797752565</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.86797449866764</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>268.8491716889096</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.12209369564515</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.494239352891</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>255.950759636282</v>
       </c>
       <c r="W38" t="n">
-        <v>175.6500335501757</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.1736961797558</v>
       </c>
       <c r="H40" t="n">
-        <v>109.6899797752565</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>64.86797449866764</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>144.3751931273316</v>
+        <v>57.46594939822899</v>
       </c>
       <c r="T40" t="n">
         <v>240.1662606755367</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>99.18758846458803</v>
       </c>
       <c r="G41" t="n">
-        <v>395.6858492721906</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.12209369564515</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V41" t="n">
-        <v>337.9104596297032</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.1736961797558</v>
       </c>
       <c r="H43" t="n">
-        <v>131.7312490056928</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>76.09418648945288</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T43" t="n">
         <v>240.1662606755367</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6071253188071</v>
+        <v>72.68699762492582</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>156.255498530942</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>44.12209369564516</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U44" t="n">
         <v>256.494239352891</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>58.91792723358528</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>45.94566896931875</v>
+        <v>45.94566896931876</v>
       </c>
       <c r="T45" t="n">
         <v>125.2149158263212</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>15.57623971588239</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.7312490056928</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>64.86797449866764</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>56.62688438138962</v>
       </c>
       <c r="T46" t="n">
         <v>240.1662606755367</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6071253188071</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>478.6322572035505</v>
+        <v>1308.41505081788</v>
       </c>
       <c r="C11" t="n">
-        <v>478.6322572035505</v>
+        <v>870.272578001303</v>
       </c>
       <c r="D11" t="n">
-        <v>42.722472377995</v>
+        <v>870.272578001303</v>
       </c>
       <c r="E11" t="n">
-        <v>42.722472377995</v>
+        <v>870.272578001303</v>
       </c>
       <c r="F11" t="n">
-        <v>42.722472377995</v>
+        <v>442.4051484105108</v>
       </c>
       <c r="G11" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="H11" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I11" t="n">
-        <v>107.1216453461881</v>
+        <v>107.121645346188</v>
       </c>
       <c r="J11" t="n">
         <v>249.7964350913663</v>
       </c>
       <c r="K11" t="n">
-        <v>463.6289602955455</v>
+        <v>463.6289602955454</v>
       </c>
       <c r="L11" t="n">
-        <v>728.9071161766301</v>
+        <v>728.9071161766298</v>
       </c>
       <c r="M11" t="n">
         <v>1024.080178222822</v>
       </c>
       <c r="N11" t="n">
-        <v>1324.029449006858</v>
+        <v>1324.029449006857</v>
       </c>
       <c r="O11" t="n">
-        <v>1607.263039848289</v>
+        <v>1607.263039848287</v>
       </c>
       <c r="P11" t="n">
-        <v>1848.996356790733</v>
+        <v>1848.996356790732</v>
       </c>
       <c r="Q11" t="n">
-        <v>2030.528010583509</v>
+        <v>2030.528010583508</v>
       </c>
       <c r="R11" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S11" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="T11" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="U11" t="n">
-        <v>2136.12361889975</v>
+        <v>1877.038528644303</v>
       </c>
       <c r="V11" t="n">
-        <v>2136.12361889975</v>
+        <v>1734.714621302788</v>
       </c>
       <c r="W11" t="n">
-        <v>1731.268164310783</v>
+        <v>1734.714621302788</v>
       </c>
       <c r="X11" t="n">
-        <v>1312.125700890094</v>
+        <v>1734.714621302788</v>
       </c>
       <c r="Y11" t="n">
-        <v>903.8395771897473</v>
+        <v>1734.714621302788</v>
       </c>
     </row>
     <row r="12">
@@ -5111,28 +5111,28 @@
         <v>160.0625813969593</v>
       </c>
       <c r="G12" t="n">
-        <v>75.595180675855</v>
+        <v>75.59518067585499</v>
       </c>
       <c r="H12" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I12" t="n">
-        <v>99.75325940102792</v>
+        <v>99.75325940102786</v>
       </c>
       <c r="J12" t="n">
-        <v>184.729386753096</v>
+        <v>199.4536774833304</v>
       </c>
       <c r="K12" t="n">
-        <v>329.9671231962088</v>
+        <v>344.6914139264431</v>
       </c>
       <c r="L12" t="n">
-        <v>525.2571832938892</v>
+        <v>539.9814740241233</v>
       </c>
       <c r="M12" t="n">
-        <v>753.1514721908287</v>
+        <v>767.8757629210627</v>
       </c>
       <c r="N12" t="n">
-        <v>1001.801735524482</v>
+        <v>1001.801735524483</v>
       </c>
       <c r="O12" t="n">
         <v>1215.79829930832</v>
@@ -5141,7 +5141,7 @@
         <v>1387.549408015174</v>
       </c>
       <c r="Q12" t="n">
-        <v>1502.36047576758</v>
+        <v>1502.360475767581</v>
       </c>
       <c r="R12" t="n">
         <v>1675.376625051553</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.5284441089007</v>
+        <v>848.8039634581147</v>
       </c>
       <c r="C13" t="n">
-        <v>219.4295264162388</v>
+        <v>676.2422519413396</v>
       </c>
       <c r="D13" t="n">
-        <v>219.4295264162388</v>
+        <v>510.3642591428624</v>
       </c>
       <c r="E13" t="n">
-        <v>219.4295264162388</v>
+        <v>340.6062553935996</v>
       </c>
       <c r="F13" t="n">
-        <v>42.722472377995</v>
+        <v>340.6062553935996</v>
       </c>
       <c r="G13" t="n">
-        <v>42.722472377995</v>
+        <v>175.784340060513</v>
       </c>
       <c r="H13" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I13" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="J13" t="n">
-        <v>96.03376384292201</v>
+        <v>96.03376384292194</v>
       </c>
       <c r="K13" t="n">
-        <v>183.6405923014237</v>
+        <v>342.0105652160038</v>
       </c>
       <c r="L13" t="n">
-        <v>295.7471707529367</v>
+        <v>870.7011608936915</v>
       </c>
       <c r="M13" t="n">
-        <v>824.4377664306248</v>
+        <v>1399.391756571379</v>
       </c>
       <c r="N13" t="n">
-        <v>1353.128362108313</v>
+        <v>1514.781877341485</v>
       </c>
       <c r="O13" t="n">
-        <v>1879.379064297536</v>
+        <v>1621.363330304927</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.069069800458</v>
+        <v>2060.069069800457</v>
       </c>
       <c r="Q13" t="n">
-        <v>2123.210423237959</v>
+        <v>2123.210423237957</v>
       </c>
       <c r="R13" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S13" t="n">
-        <v>2136.12361889975</v>
+        <v>1990.290090488303</v>
       </c>
       <c r="T13" t="n">
-        <v>1893.531436399208</v>
+        <v>1785.46041194329</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.140400723645</v>
+        <v>1785.46041194329</v>
       </c>
       <c r="V13" t="n">
-        <v>1328.184892594076</v>
+        <v>1785.46041194329</v>
       </c>
       <c r="W13" t="n">
-        <v>1056.158488180367</v>
+        <v>1513.434007529581</v>
       </c>
       <c r="X13" t="n">
-        <v>810.7667335137796</v>
+        <v>1268.042252862994</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3470628278878</v>
+        <v>1040.622582177102</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1290.681584994153</v>
+        <v>1515.278360591765</v>
       </c>
       <c r="C14" t="n">
-        <v>1290.681584994153</v>
+        <v>1077.135887775189</v>
       </c>
       <c r="D14" t="n">
-        <v>854.7718001685976</v>
+        <v>904.3646468104921</v>
       </c>
       <c r="E14" t="n">
-        <v>854.7718001685976</v>
+        <v>470.5899019687872</v>
       </c>
       <c r="F14" t="n">
-        <v>426.9043705778053</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="G14" t="n">
-        <v>314.2872922657825</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="H14" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I14" t="n">
-        <v>107.1216453461884</v>
+        <v>107.1216453461879</v>
       </c>
       <c r="J14" t="n">
-        <v>249.7964350913665</v>
+        <v>249.796435091366</v>
       </c>
       <c r="K14" t="n">
-        <v>463.6289602955458</v>
+        <v>463.6289602955451</v>
       </c>
       <c r="L14" t="n">
-        <v>728.9071161766304</v>
+        <v>728.9071161766298</v>
       </c>
       <c r="M14" t="n">
-        <v>1024.080178222823</v>
+        <v>1024.080178222822</v>
       </c>
       <c r="N14" t="n">
-        <v>1324.029449006858</v>
+        <v>1324.029449006857</v>
       </c>
       <c r="O14" t="n">
-        <v>1607.263039848289</v>
+        <v>1607.263039848288</v>
       </c>
       <c r="P14" t="n">
-        <v>1848.996356790733</v>
+        <v>1848.996356790732</v>
       </c>
       <c r="Q14" t="n">
-        <v>2030.528010583509</v>
+        <v>2030.528010583508</v>
       </c>
       <c r="R14" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S14" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="T14" t="n">
-        <v>2136.12361889975</v>
+        <v>1923.564484292112</v>
       </c>
       <c r="U14" t="n">
-        <v>2136.12361889975</v>
+        <v>1923.564484292112</v>
       </c>
       <c r="V14" t="n">
-        <v>2136.12361889975</v>
+        <v>1923.564484292112</v>
       </c>
       <c r="W14" t="n">
-        <v>2136.12361889975</v>
+        <v>1923.564484292112</v>
       </c>
       <c r="X14" t="n">
-        <v>1716.981155479061</v>
+        <v>1923.564484292112</v>
       </c>
       <c r="Y14" t="n">
-        <v>1716.981155479061</v>
+        <v>1515.278360591765</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>160.0625813969593</v>
       </c>
       <c r="G15" t="n">
-        <v>75.595180675855</v>
+        <v>75.59518067585499</v>
       </c>
       <c r="H15" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I15" t="n">
-        <v>73.68958624057031</v>
+        <v>99.75325940102788</v>
       </c>
       <c r="J15" t="n">
-        <v>316.6264555776692</v>
+        <v>316.6264555776697</v>
       </c>
       <c r="K15" t="n">
-        <v>461.864192020782</v>
+        <v>461.8641920207824</v>
       </c>
       <c r="L15" t="n">
-        <v>657.1542521184622</v>
+        <v>657.1542521184626</v>
       </c>
       <c r="M15" t="n">
-        <v>885.0485410154017</v>
+        <v>885.048541015402</v>
       </c>
       <c r="N15" t="n">
-        <v>1118.974513618822</v>
+        <v>1118.974513618823</v>
       </c>
       <c r="O15" t="n">
         <v>1332.97107740266</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.5284441089007</v>
+        <v>391.5284441088994</v>
       </c>
       <c r="C16" t="n">
-        <v>218.9667325921257</v>
+        <v>389.1875301655015</v>
       </c>
       <c r="D16" t="n">
-        <v>218.9667325921257</v>
+        <v>389.1875301655015</v>
       </c>
       <c r="E16" t="n">
-        <v>49.20872884286291</v>
+        <v>219.4295264162388</v>
       </c>
       <c r="F16" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="G16" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="H16" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I16" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="J16" t="n">
-        <v>96.03376384292201</v>
+        <v>96.03376384292196</v>
       </c>
       <c r="K16" t="n">
-        <v>183.6405923014236</v>
+        <v>273.131752279157</v>
       </c>
       <c r="L16" t="n">
-        <v>712.3311879791117</v>
+        <v>385.2383307306699</v>
       </c>
       <c r="M16" t="n">
-        <v>1241.0217836568</v>
+        <v>913.9289264083576</v>
       </c>
       <c r="N16" t="n">
-        <v>1769.712379334488</v>
+        <v>1442.619522086045</v>
       </c>
       <c r="O16" t="n">
-        <v>1968.87022427527</v>
+        <v>1968.870224275268</v>
       </c>
       <c r="P16" t="n">
-        <v>2060.069069800458</v>
+        <v>2060.069069800456</v>
       </c>
       <c r="Q16" t="n">
-        <v>2123.210423237959</v>
+        <v>2123.210423237957</v>
       </c>
       <c r="R16" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S16" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="T16" t="n">
-        <v>1893.531436399208</v>
+        <v>1893.531436399207</v>
       </c>
       <c r="U16" t="n">
-        <v>1615.140400723645</v>
+        <v>1615.140400723644</v>
       </c>
       <c r="V16" t="n">
-        <v>1328.184892594076</v>
+        <v>1328.184892594074</v>
       </c>
       <c r="W16" t="n">
-        <v>1056.158488180367</v>
+        <v>1056.158488180366</v>
       </c>
       <c r="X16" t="n">
-        <v>810.7667335137796</v>
+        <v>810.7667335137783</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3470628278878</v>
+        <v>583.3470628278865</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1250.552449036811</v>
+        <v>2141.663656576582</v>
       </c>
       <c r="C17" t="n">
-        <v>1250.552449036811</v>
+        <v>1703.521183760005</v>
       </c>
       <c r="D17" t="n">
-        <v>1250.552449036811</v>
+        <v>1591.072391577435</v>
       </c>
       <c r="E17" t="n">
-        <v>816.7777041951063</v>
+        <v>1157.29764673573</v>
       </c>
       <c r="F17" t="n">
-        <v>388.910274604314</v>
+        <v>729.4302171449377</v>
       </c>
       <c r="G17" t="n">
         <v>329.7475411124219</v>
       </c>
       <c r="H17" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463444</v>
       </c>
       <c r="I17" t="n">
         <v>122.5818941928277</v>
       </c>
       <c r="J17" t="n">
-        <v>700.5113713909238</v>
+        <v>700.5113713909237</v>
       </c>
       <c r="K17" t="n">
-        <v>914.343896595103</v>
+        <v>914.3438965951028</v>
       </c>
       <c r="L17" t="n">
-        <v>1179.622052476188</v>
+        <v>1179.622052476187</v>
       </c>
       <c r="M17" t="n">
-        <v>1474.79511452238</v>
+        <v>1474.795114522379</v>
       </c>
       <c r="N17" t="n">
         <v>1774.744385306415</v>
       </c>
       <c r="O17" t="n">
-        <v>2057.977976147846</v>
+        <v>2057.977976147845</v>
       </c>
       <c r="P17" t="n">
         <v>2299.71129309029</v>
@@ -5551,16 +5551,16 @@
         <v>2909.136061231722</v>
       </c>
       <c r="V17" t="n">
-        <v>2909.136061231722</v>
+        <v>2546.519111165549</v>
       </c>
       <c r="W17" t="n">
-        <v>2504.280606642755</v>
+        <v>2141.663656576582</v>
       </c>
       <c r="X17" t="n">
-        <v>2085.138143222066</v>
+        <v>2141.663656576582</v>
       </c>
       <c r="Y17" t="n">
-        <v>1676.852019521719</v>
+        <v>2141.663656576582</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>91.05542952249445</v>
       </c>
       <c r="H18" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463444</v>
       </c>
       <c r="I18" t="n">
         <v>115.2135082476673</v>
       </c>
       <c r="J18" t="n">
-        <v>200.1896355997355</v>
+        <v>200.1896355997354</v>
       </c>
       <c r="K18" t="n">
-        <v>345.4273720428482</v>
+        <v>345.4273720428481</v>
       </c>
       <c r="L18" t="n">
-        <v>540.7174321405284</v>
+        <v>540.7174321405283</v>
       </c>
       <c r="M18" t="n">
-        <v>768.6117210374679</v>
+        <v>768.6117210374678</v>
       </c>
       <c r="N18" t="n">
-        <v>1017.261984371122</v>
+        <v>1002.537693640889</v>
       </c>
       <c r="O18" t="n">
         <v>1231.258548154959</v>
@@ -5670,7 +5670,7 @@
         <v>123.7059277889452</v>
       </c>
       <c r="I19" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463444</v>
       </c>
       <c r="J19" t="n">
         <v>198.0736978542513</v>
@@ -5679,13 +5679,13 @@
         <v>560.4389808838885</v>
       </c>
       <c r="L19" t="n">
-        <v>984.2680852255056</v>
+        <v>1090.755441103363</v>
       </c>
       <c r="M19" t="n">
-        <v>1561.952620881375</v>
+        <v>1668.439976759232</v>
       </c>
       <c r="N19" t="n">
-        <v>2119.601544809126</v>
+        <v>2119.601544809127</v>
       </c>
       <c r="O19" t="n">
         <v>2226.182997772568</v>
@@ -5694,7 +5694,7 @@
         <v>2664.888737268098</v>
       </c>
       <c r="Q19" t="n">
-        <v>2896.22286556993</v>
+        <v>2896.222865569931</v>
       </c>
       <c r="R19" t="n">
         <v>2909.136061231722</v>
@@ -5706,10 +5706,10 @@
         <v>2520.710350319734</v>
       </c>
       <c r="U19" t="n">
-        <v>2242.319314644171</v>
+        <v>2330.106429522053</v>
       </c>
       <c r="V19" t="n">
-        <v>1955.363806514601</v>
+        <v>2043.150921392483</v>
       </c>
       <c r="W19" t="n">
         <v>1771.124516978775</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2065.441973187051</v>
+        <v>2465.124649219567</v>
       </c>
       <c r="C20" t="n">
-        <v>1627.299500370475</v>
+        <v>2026.98217640299</v>
       </c>
       <c r="D20" t="n">
-        <v>1191.389715544919</v>
+        <v>1591.072391577435</v>
       </c>
       <c r="E20" t="n">
-        <v>757.6149707032141</v>
+        <v>1157.29764673573</v>
       </c>
       <c r="F20" t="n">
-        <v>329.7475411124219</v>
+        <v>729.4302171449377</v>
       </c>
       <c r="G20" t="n">
         <v>329.7475411124219</v>
       </c>
       <c r="H20" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I20" t="n">
         <v>122.5818941928277</v>
       </c>
       <c r="J20" t="n">
-        <v>700.5113713909238</v>
+        <v>265.2566839380058</v>
       </c>
       <c r="K20" t="n">
-        <v>914.343896595103</v>
+        <v>479.089209142185</v>
       </c>
       <c r="L20" t="n">
-        <v>1179.622052476188</v>
+        <v>744.3673650232695</v>
       </c>
       <c r="M20" t="n">
-        <v>1474.79511452238</v>
+        <v>1039.540427069462</v>
       </c>
       <c r="N20" t="n">
-        <v>1774.744385306415</v>
+        <v>1339.489697853497</v>
       </c>
       <c r="O20" t="n">
-        <v>2057.977976147846</v>
+        <v>1622.723288694928</v>
       </c>
       <c r="P20" t="n">
-        <v>2452.854734369648</v>
+        <v>1914.375213007574</v>
       </c>
       <c r="Q20" t="n">
-        <v>2634.386388162424</v>
+        <v>2634.386388162425</v>
       </c>
       <c r="R20" t="n">
-        <v>2909.136061231722</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S20" t="n">
-        <v>2909.136061231722</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="T20" t="n">
-        <v>2889.439891196707</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="U20" t="n">
-        <v>2889.439891196707</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="V20" t="n">
-        <v>2889.439891196707</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="W20" t="n">
-        <v>2484.58443660774</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="X20" t="n">
-        <v>2065.441973187051</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="Y20" t="n">
-        <v>2065.441973187051</v>
+        <v>2891.424219704475</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>554.5738333172878</v>
+        <v>554.5738333172879</v>
       </c>
       <c r="C21" t="n">
-        <v>448.1173721539301</v>
+        <v>448.1173721539302</v>
       </c>
       <c r="D21" t="n">
-        <v>353.0270833004834</v>
+        <v>353.0270833004835</v>
       </c>
       <c r="E21" t="n">
-        <v>258.9066686274371</v>
+        <v>258.9066686274372</v>
       </c>
       <c r="F21" t="n">
-        <v>175.5228302435987</v>
+        <v>175.5228302435988</v>
       </c>
       <c r="G21" t="n">
-        <v>91.05542952249445</v>
+        <v>91.05542952249448</v>
       </c>
       <c r="H21" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I21" t="n">
-        <v>89.14983508720974</v>
+        <v>115.2135082476673</v>
       </c>
       <c r="J21" t="n">
-        <v>332.0867044243086</v>
+        <v>214.9139263299686</v>
       </c>
       <c r="K21" t="n">
-        <v>477.3244408674213</v>
+        <v>360.1516627730813</v>
       </c>
       <c r="L21" t="n">
-        <v>672.6145009651016</v>
+        <v>555.4417228707616</v>
       </c>
       <c r="M21" t="n">
-        <v>900.508789862041</v>
+        <v>783.3360117677011</v>
       </c>
       <c r="N21" t="n">
-        <v>1134.434762465462</v>
+        <v>1017.261984371122</v>
       </c>
       <c r="O21" t="n">
-        <v>1348.431326249299</v>
+        <v>1231.258548154959</v>
       </c>
       <c r="P21" t="n">
-        <v>1520.182434956153</v>
+        <v>1403.009656861813</v>
       </c>
       <c r="Q21" t="n">
-        <v>1634.99350270856</v>
+        <v>1517.82072461422</v>
       </c>
       <c r="R21" t="n">
         <v>1690.836873898192</v>
@@ -5873,10 +5873,10 @@
         <v>957.2309493789503</v>
       </c>
       <c r="X21" t="n">
-        <v>802.3635136178302</v>
+        <v>802.3635136178303</v>
       </c>
       <c r="Y21" t="n">
-        <v>675.877734397051</v>
+        <v>675.8777343970511</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1106.494472907309</v>
+        <v>1018.707358029427</v>
       </c>
       <c r="C22" t="n">
-        <v>933.9327613905335</v>
+        <v>846.1456465126522</v>
       </c>
       <c r="D22" t="n">
-        <v>768.0547685920562</v>
+        <v>680.2676537141749</v>
       </c>
       <c r="E22" t="n">
-        <v>598.2967648427936</v>
+        <v>510.5096499649122</v>
       </c>
       <c r="F22" t="n">
-        <v>421.5897108045498</v>
+        <v>333.8025959266683</v>
       </c>
       <c r="G22" t="n">
-        <v>256.7677954714632</v>
+        <v>191.2445889071525</v>
       </c>
       <c r="H22" t="n">
-        <v>123.7059277889452</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I22" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="J22" t="n">
-        <v>111.4940126895614</v>
+        <v>198.0736978542513</v>
       </c>
       <c r="K22" t="n">
-        <v>202.4751506445822</v>
+        <v>381.7892697505932</v>
       </c>
       <c r="L22" t="n">
-        <v>732.7916108640561</v>
+        <v>912.1057299700672</v>
       </c>
       <c r="M22" t="n">
-        <v>1310.476146519926</v>
+        <v>1489.790265625937</v>
       </c>
       <c r="N22" t="n">
-        <v>1868.125070447677</v>
+        <v>2047.439189553688</v>
       </c>
       <c r="O22" t="n">
-        <v>2394.3757726369</v>
+        <v>2573.689891742911</v>
       </c>
       <c r="P22" t="n">
-        <v>2833.081512132429</v>
+        <v>2664.888737268099</v>
       </c>
       <c r="Q22" t="n">
-        <v>2896.22286556993</v>
+        <v>2896.222865569931</v>
       </c>
       <c r="R22" t="n">
-        <v>2909.136061231722</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S22" t="n">
-        <v>2763.302532820276</v>
+        <v>2763.302532820277</v>
       </c>
       <c r="T22" t="n">
-        <v>2608.497465197616</v>
+        <v>2520.710350319735</v>
       </c>
       <c r="U22" t="n">
-        <v>2330.106429522053</v>
+        <v>2242.319314644172</v>
       </c>
       <c r="V22" t="n">
-        <v>2043.150921392483</v>
+        <v>1955.363806514602</v>
       </c>
       <c r="W22" t="n">
-        <v>1771.124516978775</v>
+        <v>1683.337402100894</v>
       </c>
       <c r="X22" t="n">
-        <v>1525.732762312188</v>
+        <v>1437.945647434306</v>
       </c>
       <c r="Y22" t="n">
-        <v>1298.313091626296</v>
+        <v>1210.525976748414</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2507.847121597564</v>
+        <v>2507.847121597562</v>
       </c>
       <c r="C23" t="n">
-        <v>2069.704648780987</v>
+        <v>2069.704648780985</v>
       </c>
       <c r="D23" t="n">
-        <v>1633.794863955432</v>
+        <v>1633.79486395543</v>
       </c>
       <c r="E23" t="n">
-        <v>1200.020119113727</v>
+        <v>1200.020119113725</v>
       </c>
       <c r="F23" t="n">
-        <v>772.1526895229345</v>
+        <v>772.1526895229327</v>
       </c>
       <c r="G23" t="n">
-        <v>372.4700134904178</v>
+        <v>372.4700134904169</v>
       </c>
       <c r="H23" t="n">
         <v>100.9051936026294</v>
       </c>
       <c r="I23" t="n">
-        <v>165.3043665708228</v>
+        <v>165.3043665708227</v>
       </c>
       <c r="J23" t="n">
-        <v>307.9791563160009</v>
+        <v>743.2338437689187</v>
       </c>
       <c r="K23" t="n">
-        <v>521.8116815201802</v>
+        <v>1791.416660931276</v>
       </c>
       <c r="L23" t="n">
-        <v>787.0898374012647</v>
+        <v>2094.080451863304</v>
       </c>
       <c r="M23" t="n">
-        <v>2035.791608233804</v>
+        <v>2389.253513909497</v>
       </c>
       <c r="N23" t="n">
-        <v>3098.543265494415</v>
+        <v>2689.202784693532</v>
       </c>
       <c r="O23" t="n">
-        <v>4347.245036326955</v>
+        <v>2972.436375534963</v>
       </c>
       <c r="P23" t="n">
-        <v>4588.978353269399</v>
+        <v>4042.479567310804</v>
       </c>
       <c r="Q23" t="n">
-        <v>4770.510007062175</v>
+        <v>4770.510007062174</v>
       </c>
       <c r="R23" t="n">
-        <v>5045.259680131472</v>
+        <v>5045.259680131471</v>
       </c>
       <c r="S23" t="n">
-        <v>5000.691908721729</v>
+        <v>5000.691908721728</v>
       </c>
       <c r="T23" t="n">
-        <v>4788.132774114093</v>
+        <v>4788.132774114091</v>
       </c>
       <c r="U23" t="n">
-        <v>4529.047683858647</v>
+        <v>4529.047683858646</v>
       </c>
       <c r="V23" t="n">
-        <v>4166.430733792474</v>
+        <v>4166.430733792472</v>
       </c>
       <c r="W23" t="n">
-        <v>3761.575279203507</v>
+        <v>3761.575279203505</v>
       </c>
       <c r="X23" t="n">
-        <v>3342.432815782818</v>
+        <v>3342.432815782816</v>
       </c>
       <c r="Y23" t="n">
-        <v>2934.146692082471</v>
+        <v>2934.14669208247</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>100.9051936026294</v>
       </c>
       <c r="I24" t="n">
-        <v>131.8723074652047</v>
+        <v>157.9359806256623</v>
       </c>
       <c r="J24" t="n">
-        <v>216.8484348172728</v>
+        <v>257.636398707964</v>
       </c>
       <c r="K24" t="n">
-        <v>362.0861712603856</v>
+        <v>402.8741351510766</v>
       </c>
       <c r="L24" t="n">
-        <v>557.3762313580659</v>
+        <v>598.1641952487569</v>
       </c>
       <c r="M24" t="n">
-        <v>943.231262240036</v>
+        <v>826.0584841456964</v>
       </c>
       <c r="N24" t="n">
-        <v>1177.157234843457</v>
+        <v>1059.984456749117</v>
       </c>
       <c r="O24" t="n">
-        <v>1391.153798627294</v>
+        <v>1273.981020532954</v>
       </c>
       <c r="P24" t="n">
-        <v>1562.904907334148</v>
+        <v>1445.732129239808</v>
       </c>
       <c r="Q24" t="n">
-        <v>1677.715975086555</v>
+        <v>1560.543196992215</v>
       </c>
       <c r="R24" t="n">
         <v>1733.559346276187</v>
@@ -6150,19 +6150,19 @@
         <v>154.2164850675564</v>
       </c>
       <c r="K25" t="n">
-        <v>332.9847379004593</v>
+        <v>516.5817680971935</v>
       </c>
       <c r="L25" t="n">
-        <v>863.3011981199332</v>
+        <v>1046.898228316668</v>
       </c>
       <c r="M25" t="n">
-        <v>1440.985733775803</v>
+        <v>1624.582763972537</v>
       </c>
       <c r="N25" t="n">
-        <v>1998.634657703554</v>
+        <v>2182.231687900288</v>
       </c>
       <c r="O25" t="n">
-        <v>2524.885359892777</v>
+        <v>2708.482390089511</v>
       </c>
       <c r="P25" t="n">
         <v>2963.591099388307</v>
@@ -6226,19 +6226,19 @@
         <v>165.3043665708227</v>
       </c>
       <c r="J26" t="n">
-        <v>307.9791563160009</v>
+        <v>743.2338437689187</v>
       </c>
       <c r="K26" t="n">
-        <v>521.8116815201802</v>
+        <v>1791.416660931276</v>
       </c>
       <c r="L26" t="n">
-        <v>1140.551743076958</v>
+        <v>2056.69481681236</v>
       </c>
       <c r="M26" t="n">
-        <v>2389.253513909497</v>
+        <v>2351.867878858553</v>
       </c>
       <c r="N26" t="n">
-        <v>2689.202784693532</v>
+        <v>2651.817149642588</v>
       </c>
       <c r="O26" t="n">
         <v>2972.436375534963</v>
@@ -6302,31 +6302,31 @@
         <v>100.9051936026294</v>
       </c>
       <c r="I27" t="n">
-        <v>131.8723074652047</v>
+        <v>157.9359806256623</v>
       </c>
       <c r="J27" t="n">
-        <v>216.8484348172728</v>
+        <v>257.636398707964</v>
       </c>
       <c r="K27" t="n">
-        <v>362.0861712603856</v>
+        <v>402.8741351510766</v>
       </c>
       <c r="L27" t="n">
-        <v>557.3762313580659</v>
+        <v>598.1641952487569</v>
       </c>
       <c r="M27" t="n">
-        <v>785.2705202550053</v>
+        <v>826.0584841456964</v>
       </c>
       <c r="N27" t="n">
-        <v>1019.196492858426</v>
+        <v>1059.984456749117</v>
       </c>
       <c r="O27" t="n">
-        <v>1233.193056642263</v>
+        <v>1273.981020532954</v>
       </c>
       <c r="P27" t="n">
-        <v>1404.944165349117</v>
+        <v>1445.732129239808</v>
       </c>
       <c r="Q27" t="n">
-        <v>1677.715975086555</v>
+        <v>1560.543196992215</v>
       </c>
       <c r="R27" t="n">
         <v>1733.559346276187</v>
@@ -6384,25 +6384,25 @@
         <v>100.9051936026294</v>
       </c>
       <c r="J28" t="n">
-        <v>154.2164850675564</v>
+        <v>240.7961702322463</v>
       </c>
       <c r="K28" t="n">
-        <v>332.9847379004593</v>
+        <v>603.1614532618835</v>
       </c>
       <c r="L28" t="n">
-        <v>863.3011981199332</v>
+        <v>715.2680317133965</v>
       </c>
       <c r="M28" t="n">
-        <v>1440.985733775803</v>
+        <v>1272.79295891147</v>
       </c>
       <c r="N28" t="n">
-        <v>1998.634657703554</v>
+        <v>1830.441882839221</v>
       </c>
       <c r="O28" t="n">
-        <v>2524.885359892777</v>
+        <v>2356.692585028445</v>
       </c>
       <c r="P28" t="n">
-        <v>2963.591099388307</v>
+        <v>2795.398324523975</v>
       </c>
       <c r="Q28" t="n">
         <v>3026.732452825808</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2507.847121597561</v>
+        <v>2507.847121597562</v>
       </c>
       <c r="C29" t="n">
-        <v>2069.704648780984</v>
+        <v>2069.704648780985</v>
       </c>
       <c r="D29" t="n">
-        <v>1633.794863955429</v>
+        <v>1633.79486395543</v>
       </c>
       <c r="E29" t="n">
-        <v>1200.020119113724</v>
+        <v>1200.020119113725</v>
       </c>
       <c r="F29" t="n">
-        <v>772.1526895229317</v>
+        <v>772.1526895229327</v>
       </c>
       <c r="G29" t="n">
         <v>372.4700134904169</v>
@@ -6463,22 +6463,22 @@
         <v>165.3043665708227</v>
       </c>
       <c r="J29" t="n">
-        <v>643.4611736621514</v>
+        <v>743.2338437689187</v>
       </c>
       <c r="K29" t="n">
-        <v>1691.643990824509</v>
+        <v>1791.416660931276</v>
       </c>
       <c r="L29" t="n">
-        <v>1956.922146705593</v>
+        <v>2094.080451863304</v>
       </c>
       <c r="M29" t="n">
-        <v>2252.095208751785</v>
+        <v>2389.253513909497</v>
       </c>
       <c r="N29" t="n">
-        <v>2552.04447953582</v>
+        <v>2689.202784693532</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.746250368359</v>
+        <v>2972.436375534963</v>
       </c>
       <c r="P29" t="n">
         <v>4042.479567310804</v>
@@ -6493,22 +6493,22 @@
         <v>5000.691908721728</v>
       </c>
       <c r="T29" t="n">
-        <v>4788.13277411409</v>
+        <v>4788.132774114091</v>
       </c>
       <c r="U29" t="n">
-        <v>4529.047683858645</v>
+        <v>4529.047683858646</v>
       </c>
       <c r="V29" t="n">
-        <v>4166.430733792471</v>
+        <v>4166.430733792473</v>
       </c>
       <c r="W29" t="n">
-        <v>3761.575279203505</v>
+        <v>3761.575279203506</v>
       </c>
       <c r="X29" t="n">
-        <v>3342.432815782815</v>
+        <v>3342.432815782817</v>
       </c>
       <c r="Y29" t="n">
-        <v>2934.146692082469</v>
+        <v>2934.14669208247</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>100.9051936026294</v>
       </c>
       <c r="I30" t="n">
-        <v>131.8723074652047</v>
+        <v>157.9359806256623</v>
       </c>
       <c r="J30" t="n">
-        <v>216.8484348172728</v>
+        <v>257.636398707964</v>
       </c>
       <c r="K30" t="n">
-        <v>362.0861712603856</v>
+        <v>402.8741351510766</v>
       </c>
       <c r="L30" t="n">
-        <v>557.3762313580659</v>
+        <v>598.1641952487569</v>
       </c>
       <c r="M30" t="n">
-        <v>785.2705202550053</v>
+        <v>826.0584841456964</v>
       </c>
       <c r="N30" t="n">
-        <v>1019.196492858426</v>
+        <v>1059.984456749117</v>
       </c>
       <c r="O30" t="n">
-        <v>1391.153798627294</v>
+        <v>1273.981020532954</v>
       </c>
       <c r="P30" t="n">
-        <v>1562.904907334148</v>
+        <v>1445.732129239808</v>
       </c>
       <c r="Q30" t="n">
-        <v>1677.715975086555</v>
+        <v>1560.543196992215</v>
       </c>
       <c r="R30" t="n">
         <v>1733.559346276187</v>
@@ -6624,22 +6624,22 @@
         <v>154.2164850675564</v>
       </c>
       <c r="K31" t="n">
-        <v>332.9847379004593</v>
+        <v>241.823313526058</v>
       </c>
       <c r="L31" t="n">
-        <v>863.3011981199332</v>
+        <v>695.108423255601</v>
       </c>
       <c r="M31" t="n">
-        <v>1440.985733775803</v>
+        <v>1272.79295891147</v>
       </c>
       <c r="N31" t="n">
-        <v>1998.634657703554</v>
+        <v>1830.441882839221</v>
       </c>
       <c r="O31" t="n">
-        <v>2524.885359892777</v>
+        <v>2356.692585028445</v>
       </c>
       <c r="P31" t="n">
-        <v>2963.591099388307</v>
+        <v>2795.398324523975</v>
       </c>
       <c r="Q31" t="n">
         <v>3026.732452825808</v>
@@ -6688,7 +6688,7 @@
         <v>1200.020119113725</v>
       </c>
       <c r="F32" t="n">
-        <v>772.1526895229326</v>
+        <v>772.1526895229327</v>
       </c>
       <c r="G32" t="n">
         <v>372.4700134904169</v>
@@ -6700,37 +6700,37 @@
         <v>165.3043665708227</v>
       </c>
       <c r="J32" t="n">
-        <v>743.2338437689189</v>
+        <v>743.2338437689187</v>
       </c>
       <c r="K32" t="n">
         <v>1791.416660931276</v>
       </c>
       <c r="L32" t="n">
-        <v>2094.080451863304</v>
+        <v>2056.69481681236</v>
       </c>
       <c r="M32" t="n">
-        <v>2389.253513909497</v>
+        <v>2351.867878858553</v>
       </c>
       <c r="N32" t="n">
-        <v>2689.202784693532</v>
+        <v>2651.817149642588</v>
       </c>
       <c r="O32" t="n">
-        <v>2972.436375534963</v>
+        <v>2972.436375534964</v>
       </c>
       <c r="P32" t="n">
-        <v>4042.479567310804</v>
+        <v>4042.479567310805</v>
       </c>
       <c r="Q32" t="n">
-        <v>4770.510007062174</v>
+        <v>4770.510007062175</v>
       </c>
       <c r="R32" t="n">
-        <v>5045.259680131471</v>
+        <v>5045.259680131472</v>
       </c>
       <c r="S32" t="n">
-        <v>5000.691908721728</v>
+        <v>5000.691908721729</v>
       </c>
       <c r="T32" t="n">
-        <v>4788.132774114091</v>
+        <v>4788.132774114092</v>
       </c>
       <c r="U32" t="n">
         <v>4529.047683858646</v>
@@ -6776,31 +6776,31 @@
         <v>100.9051936026294</v>
       </c>
       <c r="I33" t="n">
-        <v>131.8723074652047</v>
+        <v>157.9359806256624</v>
       </c>
       <c r="J33" t="n">
-        <v>216.8484348172728</v>
+        <v>257.636398707964</v>
       </c>
       <c r="K33" t="n">
-        <v>362.0861712603856</v>
+        <v>402.8741351510766</v>
       </c>
       <c r="L33" t="n">
-        <v>557.3762313580659</v>
+        <v>598.1641952487569</v>
       </c>
       <c r="M33" t="n">
-        <v>785.2705202550053</v>
+        <v>826.0584841456964</v>
       </c>
       <c r="N33" t="n">
-        <v>1019.196492858426</v>
+        <v>1059.984456749117</v>
       </c>
       <c r="O33" t="n">
-        <v>1233.193056642263</v>
+        <v>1273.981020532954</v>
       </c>
       <c r="P33" t="n">
-        <v>1404.944165349117</v>
+        <v>1445.732129239808</v>
       </c>
       <c r="Q33" t="n">
-        <v>1677.715975086555</v>
+        <v>1560.543196992215</v>
       </c>
       <c r="R33" t="n">
         <v>1733.559346276187</v>
@@ -6858,25 +6858,25 @@
         <v>100.9051936026294</v>
       </c>
       <c r="J34" t="n">
-        <v>154.2164850675564</v>
+        <v>240.7961702322463</v>
       </c>
       <c r="K34" t="n">
-        <v>332.9847379004593</v>
+        <v>603.1614532618835</v>
       </c>
       <c r="L34" t="n">
-        <v>863.3011981199332</v>
+        <v>1133.477913481357</v>
       </c>
       <c r="M34" t="n">
-        <v>1440.985733775803</v>
+        <v>1272.79295891147</v>
       </c>
       <c r="N34" t="n">
-        <v>1998.634657703554</v>
+        <v>1830.441882839221</v>
       </c>
       <c r="O34" t="n">
-        <v>2524.885359892777</v>
+        <v>2356.692585028445</v>
       </c>
       <c r="P34" t="n">
-        <v>2963.591099388307</v>
+        <v>2795.398324523975</v>
       </c>
       <c r="Q34" t="n">
         <v>3026.732452825808</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1793.877153299264</v>
+        <v>2438.268719337073</v>
       </c>
       <c r="C35" t="n">
-        <v>1355.734680482687</v>
+        <v>2000.126246520496</v>
       </c>
       <c r="D35" t="n">
-        <v>919.8248956571315</v>
+        <v>1564.21646169494</v>
       </c>
       <c r="E35" t="n">
-        <v>486.0501508154267</v>
+        <v>1130.441716853235</v>
       </c>
       <c r="F35" t="n">
-        <v>58.18272122463443</v>
+        <v>702.5742872624432</v>
       </c>
       <c r="G35" t="n">
-        <v>58.18272122463443</v>
+        <v>302.8916112299274</v>
       </c>
       <c r="H35" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I35" t="n">
         <v>122.5818941928277</v>
       </c>
       <c r="J35" t="n">
-        <v>700.5113713909238</v>
+        <v>700.5113713909237</v>
       </c>
       <c r="K35" t="n">
-        <v>914.343896595103</v>
+        <v>1067.487337874462</v>
       </c>
       <c r="L35" t="n">
-        <v>1179.622052476188</v>
+        <v>1332.765493755546</v>
       </c>
       <c r="M35" t="n">
-        <v>1474.79511452238</v>
+        <v>1627.938555801739</v>
       </c>
       <c r="N35" t="n">
-        <v>1774.744385306415</v>
+        <v>1927.887826585774</v>
       </c>
       <c r="O35" t="n">
-        <v>2057.977976147846</v>
+        <v>2211.121417427205</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.71129309029</v>
+        <v>2452.854734369649</v>
       </c>
       <c r="Q35" t="n">
-        <v>2634.386388162423</v>
+        <v>2634.386388162425</v>
       </c>
       <c r="R35" t="n">
-        <v>2909.136061231721</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S35" t="n">
-        <v>2864.568289821979</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="T35" t="n">
-        <v>2864.568289821979</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="U35" t="n">
-        <v>2864.568289821979</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="V35" t="n">
-        <v>2864.568289821979</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="W35" t="n">
-        <v>2864.568289821979</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="X35" t="n">
-        <v>2628.462847484518</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="Y35" t="n">
-        <v>2220.176723784171</v>
+        <v>2864.56828982198</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>554.5738333172878</v>
+        <v>554.5738333172879</v>
       </c>
       <c r="C36" t="n">
-        <v>448.1173721539301</v>
+        <v>448.1173721539302</v>
       </c>
       <c r="D36" t="n">
-        <v>353.0270833004834</v>
+        <v>353.0270833004835</v>
       </c>
       <c r="E36" t="n">
-        <v>258.9066686274371</v>
+        <v>258.9066686274372</v>
       </c>
       <c r="F36" t="n">
-        <v>175.5228302435987</v>
+        <v>175.5228302435988</v>
       </c>
       <c r="G36" t="n">
-        <v>91.05542952249444</v>
+        <v>91.05542952249448</v>
       </c>
       <c r="H36" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I36" t="n">
         <v>115.2135082476673</v>
       </c>
       <c r="J36" t="n">
-        <v>214.9139263299686</v>
+        <v>200.1896355997354</v>
       </c>
       <c r="K36" t="n">
-        <v>360.1516627730813</v>
+        <v>345.4273720428481</v>
       </c>
       <c r="L36" t="n">
-        <v>555.4417228707616</v>
+        <v>540.7174321405283</v>
       </c>
       <c r="M36" t="n">
-        <v>783.3360117677011</v>
+        <v>768.6117210374678</v>
       </c>
       <c r="N36" t="n">
-        <v>1017.261984371122</v>
+        <v>1002.537693640889</v>
       </c>
       <c r="O36" t="n">
-        <v>1231.258548154959</v>
+        <v>1216.534257424726</v>
       </c>
       <c r="P36" t="n">
-        <v>1403.009656861813</v>
+        <v>1388.28536613158</v>
       </c>
       <c r="Q36" t="n">
         <v>1517.82072461422</v>
@@ -7058,10 +7058,10 @@
         <v>957.2309493789503</v>
       </c>
       <c r="X36" t="n">
-        <v>802.3635136178302</v>
+        <v>802.3635136178303</v>
       </c>
       <c r="Y36" t="n">
-        <v>675.877734397051</v>
+        <v>675.8777343970511</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1018.707358029426</v>
+        <v>1018.707358029427</v>
       </c>
       <c r="C37" t="n">
-        <v>846.1456465126508</v>
+        <v>846.1456465126522</v>
       </c>
       <c r="D37" t="n">
-        <v>680.2676537141735</v>
+        <v>768.0547685920562</v>
       </c>
       <c r="E37" t="n">
-        <v>510.5096499649108</v>
+        <v>598.2967648427936</v>
       </c>
       <c r="F37" t="n">
-        <v>333.802595926667</v>
+        <v>421.5897108045498</v>
       </c>
       <c r="G37" t="n">
-        <v>168.9806805935804</v>
+        <v>256.7677954714632</v>
       </c>
       <c r="H37" t="n">
-        <v>58.18272122463443</v>
+        <v>123.7059277889452</v>
       </c>
       <c r="I37" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="J37" t="n">
-        <v>111.4940126895614</v>
+        <v>198.0736978542513</v>
       </c>
       <c r="K37" t="n">
-        <v>202.4751506445817</v>
+        <v>285.6805263127528</v>
       </c>
       <c r="L37" t="n">
-        <v>732.7916108640557</v>
+        <v>564.5988359997253</v>
       </c>
       <c r="M37" t="n">
-        <v>1310.476146519925</v>
+        <v>1142.283371655595</v>
       </c>
       <c r="N37" t="n">
-        <v>1868.125070447676</v>
+        <v>1699.932295583346</v>
       </c>
       <c r="O37" t="n">
-        <v>2394.375772636899</v>
+        <v>2226.182997772569</v>
       </c>
       <c r="P37" t="n">
-        <v>2833.081512132429</v>
+        <v>2664.888737268099</v>
       </c>
       <c r="Q37" t="n">
-        <v>2896.22286556993</v>
+        <v>2896.222865569931</v>
       </c>
       <c r="R37" t="n">
-        <v>2909.136061231721</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S37" t="n">
-        <v>2763.302532820275</v>
+        <v>2763.302532820277</v>
       </c>
       <c r="T37" t="n">
-        <v>2520.710350319733</v>
+        <v>2520.710350319735</v>
       </c>
       <c r="U37" t="n">
-        <v>2242.31931464417</v>
+        <v>2242.319314644172</v>
       </c>
       <c r="V37" t="n">
-        <v>1955.363806514601</v>
+        <v>1955.363806514602</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.337402100892</v>
+        <v>1683.337402100894</v>
       </c>
       <c r="X37" t="n">
-        <v>1437.945647434305</v>
+        <v>1437.945647434306</v>
       </c>
       <c r="Y37" t="n">
-        <v>1210.525976748413</v>
+        <v>1210.525976748414</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2065.441973187051</v>
+        <v>1355.734680482687</v>
       </c>
       <c r="C38" t="n">
-        <v>1627.299500370475</v>
+        <v>1355.734680482687</v>
       </c>
       <c r="D38" t="n">
-        <v>1191.389715544919</v>
+        <v>919.8248956571315</v>
       </c>
       <c r="E38" t="n">
-        <v>757.6149707032141</v>
+        <v>486.0501508154267</v>
       </c>
       <c r="F38" t="n">
-        <v>329.7475411124219</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="G38" t="n">
-        <v>329.7475411124219</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="H38" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I38" t="n">
         <v>122.5818941928277</v>
       </c>
       <c r="J38" t="n">
-        <v>265.2566839380059</v>
+        <v>265.2566839380058</v>
       </c>
       <c r="K38" t="n">
-        <v>479.0892091421851</v>
+        <v>479.089209142185</v>
       </c>
       <c r="L38" t="n">
-        <v>744.3673650232697</v>
+        <v>744.3673650232695</v>
       </c>
       <c r="M38" t="n">
         <v>1039.540427069462</v>
@@ -7192,34 +7192,34 @@
         <v>1622.723288694928</v>
       </c>
       <c r="P38" t="n">
-        <v>1914.375213007572</v>
+        <v>1914.375213007574</v>
       </c>
       <c r="Q38" t="n">
-        <v>2634.386388162423</v>
+        <v>2634.386388162425</v>
       </c>
       <c r="R38" t="n">
-        <v>2909.136061231721</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S38" t="n">
-        <v>2864.568289821979</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="T38" t="n">
-        <v>2864.568289821979</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="U38" t="n">
-        <v>2605.483199566534</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="V38" t="n">
-        <v>2242.86624950036</v>
+        <v>2606.032168977251</v>
       </c>
       <c r="W38" t="n">
-        <v>2065.441973187051</v>
+        <v>2201.176714388284</v>
       </c>
       <c r="X38" t="n">
-        <v>2065.441973187051</v>
+        <v>1782.034250967595</v>
       </c>
       <c r="Y38" t="n">
-        <v>2065.441973187051</v>
+        <v>1782.034250967595</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>554.5738333172878</v>
+        <v>554.5738333172879</v>
       </c>
       <c r="C39" t="n">
-        <v>448.1173721539301</v>
+        <v>448.1173721539302</v>
       </c>
       <c r="D39" t="n">
-        <v>353.0270833004834</v>
+        <v>353.0270833004835</v>
       </c>
       <c r="E39" t="n">
-        <v>258.9066686274371</v>
+        <v>258.9066686274372</v>
       </c>
       <c r="F39" t="n">
-        <v>175.5228302435987</v>
+        <v>175.5228302435988</v>
       </c>
       <c r="G39" t="n">
-        <v>91.05542952249444</v>
+        <v>91.05542952249448</v>
       </c>
       <c r="H39" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I39" t="n">
-        <v>89.14983508720972</v>
+        <v>115.2135082476673</v>
       </c>
       <c r="J39" t="n">
-        <v>174.1259624392778</v>
+        <v>214.9139263299686</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3636988823906</v>
+        <v>360.1516627730813</v>
       </c>
       <c r="L39" t="n">
-        <v>514.6537589800708</v>
+        <v>555.4417228707616</v>
       </c>
       <c r="M39" t="n">
-        <v>742.5480478770103</v>
+        <v>783.3360117677011</v>
       </c>
       <c r="N39" t="n">
-        <v>976.474020480431</v>
+        <v>1017.261984371122</v>
       </c>
       <c r="O39" t="n">
-        <v>1190.470584264268</v>
+        <v>1231.258548154959</v>
       </c>
       <c r="P39" t="n">
-        <v>1362.221692971122</v>
+        <v>1403.009656861813</v>
       </c>
       <c r="Q39" t="n">
-        <v>1634.99350270856</v>
+        <v>1517.82072461422</v>
       </c>
       <c r="R39" t="n">
         <v>1690.836873898192</v>
@@ -7295,10 +7295,10 @@
         <v>957.2309493789503</v>
       </c>
       <c r="X39" t="n">
-        <v>802.3635136178302</v>
+        <v>802.3635136178303</v>
       </c>
       <c r="Y39" t="n">
-        <v>675.877734397051</v>
+        <v>675.8777343970511</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1018.707358029426</v>
+        <v>1106.494472907309</v>
       </c>
       <c r="C40" t="n">
-        <v>846.1456465126508</v>
+        <v>933.9327613905335</v>
       </c>
       <c r="D40" t="n">
-        <v>680.2676537141735</v>
+        <v>768.0547685920562</v>
       </c>
       <c r="E40" t="n">
-        <v>510.5096499649108</v>
+        <v>598.2967648427936</v>
       </c>
       <c r="F40" t="n">
-        <v>333.802595926667</v>
+        <v>421.5897108045498</v>
       </c>
       <c r="G40" t="n">
-        <v>168.9806805935804</v>
+        <v>256.7677954714632</v>
       </c>
       <c r="H40" t="n">
-        <v>58.18272122463443</v>
+        <v>123.7059277889452</v>
       </c>
       <c r="I40" t="n">
-        <v>58.18272122463443</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="J40" t="n">
-        <v>111.4940126895614</v>
+        <v>198.0736978542513</v>
       </c>
       <c r="K40" t="n">
-        <v>473.8592957191986</v>
+        <v>381.7892697505932</v>
       </c>
       <c r="L40" t="n">
-        <v>1004.175755938673</v>
+        <v>912.1057299700672</v>
       </c>
       <c r="M40" t="n">
-        <v>1581.860291594542</v>
+        <v>1489.790265625937</v>
       </c>
       <c r="N40" t="n">
-        <v>2139.509215522293</v>
+        <v>2047.439189553688</v>
       </c>
       <c r="O40" t="n">
-        <v>2665.759917711516</v>
+        <v>2573.689891742911</v>
       </c>
       <c r="P40" t="n">
-        <v>2833.081512132429</v>
+        <v>2664.888737268099</v>
       </c>
       <c r="Q40" t="n">
-        <v>2896.22286556993</v>
+        <v>2896.222865569931</v>
       </c>
       <c r="R40" t="n">
-        <v>2909.136061231721</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S40" t="n">
-        <v>2763.302532820275</v>
+        <v>2851.089647698158</v>
       </c>
       <c r="T40" t="n">
-        <v>2520.710350319733</v>
+        <v>2608.497465197616</v>
       </c>
       <c r="U40" t="n">
-        <v>2242.31931464417</v>
+        <v>2330.106429522053</v>
       </c>
       <c r="V40" t="n">
-        <v>1955.363806514601</v>
+        <v>2043.150921392483</v>
       </c>
       <c r="W40" t="n">
-        <v>1683.337402100892</v>
+        <v>1771.124516978775</v>
       </c>
       <c r="X40" t="n">
-        <v>1437.945647434305</v>
+        <v>1525.732762312188</v>
       </c>
       <c r="Y40" t="n">
-        <v>1210.525976748413</v>
+        <v>1298.313091626296</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1750.232150894348</v>
+        <v>1450.738958159396</v>
       </c>
       <c r="C41" t="n">
-        <v>1312.089678077771</v>
+        <v>1012.596485342819</v>
       </c>
       <c r="D41" t="n">
-        <v>876.1798932522156</v>
+        <v>576.6867005172635</v>
       </c>
       <c r="E41" t="n">
-        <v>442.4051484105108</v>
+        <v>142.9119556755587</v>
       </c>
       <c r="F41" t="n">
-        <v>442.4051484105108</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="G41" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="H41" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I41" t="n">
-        <v>107.1216453461886</v>
+        <v>107.121645346188</v>
       </c>
       <c r="J41" t="n">
-        <v>249.7964350913668</v>
+        <v>249.7964350913661</v>
       </c>
       <c r="K41" t="n">
-        <v>463.628960295546</v>
+        <v>463.6289602955452</v>
       </c>
       <c r="L41" t="n">
-        <v>728.9071161766306</v>
+        <v>728.9071161766298</v>
       </c>
       <c r="M41" t="n">
-        <v>1024.080178222823</v>
+        <v>1024.080178222822</v>
       </c>
       <c r="N41" t="n">
-        <v>1324.029449006858</v>
+        <v>1324.029449006857</v>
       </c>
       <c r="O41" t="n">
-        <v>1607.263039848289</v>
+        <v>1607.263039848288</v>
       </c>
       <c r="P41" t="n">
-        <v>1848.996356790733</v>
+        <v>1848.996356790732</v>
       </c>
       <c r="Q41" t="n">
-        <v>2030.528010583509</v>
+        <v>2030.528010583508</v>
       </c>
       <c r="R41" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S41" t="n">
-        <v>2091.555847490008</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="T41" t="n">
-        <v>2091.555847490008</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="U41" t="n">
-        <v>2091.555847490008</v>
+        <v>1877.038528644304</v>
       </c>
       <c r="V41" t="n">
-        <v>1750.232150894348</v>
+        <v>1877.038528644304</v>
       </c>
       <c r="W41" t="n">
-        <v>1750.232150894348</v>
+        <v>1877.038528644304</v>
       </c>
       <c r="X41" t="n">
-        <v>1750.232150894348</v>
+        <v>1877.038528644304</v>
       </c>
       <c r="Y41" t="n">
-        <v>1750.232150894348</v>
+        <v>1877.038528644304</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>75.595180675855</v>
       </c>
       <c r="H42" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I42" t="n">
-        <v>73.68958624057031</v>
+        <v>99.75325940102789</v>
       </c>
       <c r="J42" t="n">
-        <v>316.6264555776692</v>
+        <v>199.4536774833294</v>
       </c>
       <c r="K42" t="n">
-        <v>461.864192020782</v>
+        <v>344.6914139264421</v>
       </c>
       <c r="L42" t="n">
-        <v>657.1542521184622</v>
+        <v>539.9814740241223</v>
       </c>
       <c r="M42" t="n">
-        <v>885.0485410154017</v>
+        <v>767.8757629210619</v>
       </c>
       <c r="N42" t="n">
-        <v>1118.974513618822</v>
+        <v>1001.801735524483</v>
       </c>
       <c r="O42" t="n">
-        <v>1332.97107740266</v>
+        <v>1215.79829930832</v>
       </c>
       <c r="P42" t="n">
-        <v>1504.722186109514</v>
+        <v>1387.549408015174</v>
       </c>
       <c r="Q42" t="n">
-        <v>1619.53325386192</v>
+        <v>1502.36047576758</v>
       </c>
       <c r="R42" t="n">
         <v>1675.376625051553</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>506.484248192077</v>
+        <v>722.6911460645778</v>
       </c>
       <c r="C43" t="n">
-        <v>506.484248192077</v>
+        <v>550.1294345478027</v>
       </c>
       <c r="D43" t="n">
-        <v>340.6062553935996</v>
+        <v>384.2514417493254</v>
       </c>
       <c r="E43" t="n">
-        <v>340.6062553935996</v>
+        <v>384.2514417493254</v>
       </c>
       <c r="F43" t="n">
-        <v>340.6062553935996</v>
+        <v>207.5443877110816</v>
       </c>
       <c r="G43" t="n">
-        <v>175.784340060513</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="H43" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I43" t="n">
-        <v>42.722472377995</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="J43" t="n">
-        <v>158.9594012923762</v>
+        <v>96.03376384292197</v>
       </c>
       <c r="K43" t="n">
-        <v>521.3246843220134</v>
+        <v>183.6405923014235</v>
       </c>
       <c r="L43" t="n">
-        <v>1050.015279999702</v>
+        <v>385.2383307306701</v>
       </c>
       <c r="M43" t="n">
-        <v>1578.705875677389</v>
+        <v>913.9289264083579</v>
       </c>
       <c r="N43" t="n">
-        <v>1694.095996447496</v>
+        <v>1442.619522086046</v>
       </c>
       <c r="O43" t="n">
-        <v>1800.677449410937</v>
+        <v>1968.870224275269</v>
       </c>
       <c r="P43" t="n">
-        <v>1891.876294936126</v>
+        <v>2060.069069800457</v>
       </c>
       <c r="Q43" t="n">
-        <v>2123.210423237959</v>
+        <v>2123.210423237958</v>
       </c>
       <c r="R43" t="n">
-        <v>2136.12361889975</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S43" t="n">
-        <v>2059.260804263939</v>
+        <v>1990.290090488303</v>
       </c>
       <c r="T43" t="n">
-        <v>1816.668621763397</v>
+        <v>1747.697907987761</v>
       </c>
       <c r="U43" t="n">
-        <v>1538.277586087834</v>
+        <v>1674.276698265614</v>
       </c>
       <c r="V43" t="n">
-        <v>1251.322077958265</v>
+        <v>1387.321190136044</v>
       </c>
       <c r="W43" t="n">
-        <v>979.2956735445562</v>
+        <v>1387.321190136044</v>
       </c>
       <c r="X43" t="n">
-        <v>733.9039188779686</v>
+        <v>1141.929435469457</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.484248192077</v>
+        <v>914.5097647835648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>638.6987820945131</v>
+        <v>1152.112441114875</v>
       </c>
       <c r="C44" t="n">
-        <v>200.5563092779365</v>
+        <v>713.9699682982982</v>
       </c>
       <c r="D44" t="n">
-        <v>42.72247237799498</v>
+        <v>713.9699682982982</v>
       </c>
       <c r="E44" t="n">
-        <v>42.72247237799498</v>
+        <v>713.9699682982982</v>
       </c>
       <c r="F44" t="n">
-        <v>42.72247237799498</v>
+        <v>713.9699682982982</v>
       </c>
       <c r="G44" t="n">
-        <v>42.72247237799498</v>
+        <v>314.2872922657824</v>
       </c>
       <c r="H44" t="n">
         <v>42.72247237799498</v>
       </c>
       <c r="I44" t="n">
-        <v>107.1216453461877</v>
+        <v>107.1216453461884</v>
       </c>
       <c r="J44" t="n">
-        <v>249.7964350913659</v>
+        <v>249.7964350913665</v>
       </c>
       <c r="K44" t="n">
-        <v>463.6289602955451</v>
+        <v>463.6289602955457</v>
       </c>
       <c r="L44" t="n">
-        <v>728.9071161766298</v>
+        <v>728.9071161766302</v>
       </c>
       <c r="M44" t="n">
         <v>1024.080178222822</v>
@@ -7666,7 +7666,7 @@
         <v>1607.263039848288</v>
       </c>
       <c r="P44" t="n">
-        <v>1848.996356790732</v>
+        <v>1848.996356790733</v>
       </c>
       <c r="Q44" t="n">
         <v>2030.528010583508</v>
@@ -7675,25 +7675,25 @@
         <v>2136.123618899749</v>
       </c>
       <c r="S44" t="n">
-        <v>2091.555847490007</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="T44" t="n">
-        <v>2091.555847490007</v>
+        <v>1878.996712882369</v>
       </c>
       <c r="U44" t="n">
-        <v>1832.470757234561</v>
+        <v>1619.911622626924</v>
       </c>
       <c r="V44" t="n">
-        <v>1469.853807168388</v>
+        <v>1560.398564815222</v>
       </c>
       <c r="W44" t="n">
-        <v>1064.998352579421</v>
+        <v>1560.398564815222</v>
       </c>
       <c r="X44" t="n">
-        <v>1064.998352579421</v>
+        <v>1560.398564815222</v>
       </c>
       <c r="Y44" t="n">
-        <v>1064.998352579421</v>
+        <v>1152.112441114875</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.72247237799498</v>
       </c>
       <c r="I45" t="n">
-        <v>73.68958624057028</v>
+        <v>99.75325940102789</v>
       </c>
       <c r="J45" t="n">
-        <v>316.6264555776692</v>
+        <v>199.45367748333</v>
       </c>
       <c r="K45" t="n">
-        <v>461.864192020782</v>
+        <v>344.6914139264427</v>
       </c>
       <c r="L45" t="n">
-        <v>657.1542521184622</v>
+        <v>539.9814740241229</v>
       </c>
       <c r="M45" t="n">
-        <v>885.0485410154017</v>
+        <v>767.8757629210623</v>
       </c>
       <c r="N45" t="n">
-        <v>1118.974513618822</v>
+        <v>1001.801735524483</v>
       </c>
       <c r="O45" t="n">
-        <v>1332.97107740266</v>
+        <v>1215.79829930832</v>
       </c>
       <c r="P45" t="n">
-        <v>1504.722186109514</v>
+        <v>1387.549408015174</v>
       </c>
       <c r="Q45" t="n">
-        <v>1619.53325386192</v>
+        <v>1502.360475767581</v>
       </c>
       <c r="R45" t="n">
         <v>1675.376625051553</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>941.9458841981709</v>
+        <v>561.7492416822765</v>
       </c>
       <c r="C46" t="n">
-        <v>769.3841726813959</v>
+        <v>389.1875301655015</v>
       </c>
       <c r="D46" t="n">
-        <v>603.5061798829186</v>
+        <v>389.1875301655015</v>
       </c>
       <c r="E46" t="n">
-        <v>433.7481761336558</v>
+        <v>219.4295264162388</v>
       </c>
       <c r="F46" t="n">
-        <v>257.041122095412</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="G46" t="n">
-        <v>241.3075466248237</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="H46" t="n">
-        <v>108.2456789423057</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I46" t="n">
         <v>42.72247237799498</v>
@@ -7809,22 +7809,22 @@
         <v>182.6134490076118</v>
       </c>
       <c r="K46" t="n">
-        <v>524.6082266406064</v>
+        <v>270.2202774661134</v>
       </c>
       <c r="L46" t="n">
-        <v>636.7148050921194</v>
+        <v>382.3268559176263</v>
       </c>
       <c r="M46" t="n">
-        <v>1165.405400769807</v>
+        <v>911.0174515953142</v>
       </c>
       <c r="N46" t="n">
-        <v>1694.095996447495</v>
+        <v>1439.708047273002</v>
       </c>
       <c r="O46" t="n">
-        <v>1800.677449410937</v>
+        <v>1965.958749462225</v>
       </c>
       <c r="P46" t="n">
-        <v>1891.876294936125</v>
+        <v>2057.157594987413</v>
       </c>
       <c r="Q46" t="n">
         <v>2123.210423237958</v>
@@ -7833,25 +7833,25 @@
         <v>2136.123618899749</v>
       </c>
       <c r="S46" t="n">
-        <v>2136.123618899749</v>
+        <v>2078.924745787234</v>
       </c>
       <c r="T46" t="n">
-        <v>1893.531436399207</v>
+        <v>1836.332563286692</v>
       </c>
       <c r="U46" t="n">
-        <v>1893.531436399207</v>
+        <v>1557.941527611129</v>
       </c>
       <c r="V46" t="n">
-        <v>1606.575928269637</v>
+        <v>1270.98601948156</v>
       </c>
       <c r="W46" t="n">
-        <v>1606.575928269637</v>
+        <v>998.9596150678512</v>
       </c>
       <c r="X46" t="n">
-        <v>1361.18417360305</v>
+        <v>753.5678604012637</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.764502917158</v>
+        <v>753.5678604012637</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>14.87302093963081</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>14.87302093962921</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>159.9696696106871</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>420.7919365920958</v>
       </c>
       <c r="M13" t="n">
-        <v>414.6362901037694</v>
+        <v>414.6362901037691</v>
       </c>
       <c r="N13" t="n">
-        <v>417.4752271793756</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>90.39511108861984</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>159.5563050353847</v>
+        <v>133.2293624490644</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,19 +9087,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>90.39511108861961</v>
       </c>
       <c r="L16" t="n">
-        <v>420.7919365920961</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>414.6362901037695</v>
+        <v>414.6362901037691</v>
       </c>
       <c r="N16" t="n">
-        <v>417.4752271793755</v>
+        <v>417.4752271793753</v>
       </c>
       <c r="O16" t="n">
-        <v>93.51150704781821</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.6903447266241</v>
+        <v>154.690344726625</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>14.87302093962944</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.87302093962967</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9327,13 +9327,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>314.8712382728326</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>339.1630780603923</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>154.6903447266241</v>
+        <v>50.42283572747647</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>543.9187084465407</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>159.5563050353846</v>
+        <v>14.8730209396295</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>3.408393430827374</v>
+        <v>97.07953882610138</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>37.76326772822631</v>
       </c>
       <c r="M23" t="n">
-        <v>963.1603119054012</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>770.5074610874503</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>975.2203838294026</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>14.87302093962984</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>159.5563050353845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>92.08224684282953</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>165.5655189632398</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>357.0322279552455</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>963.1603119054009</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>37.76326772822631</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>14.87302093962984</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.5563050353846</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>92.08224684282956</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>443.7618774980986</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>338.8707245920712</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>37.76326772822631</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>975.2203838294022</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>14.87302093962984</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>159.5563050353846</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>92.08224684282956</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>344.6247790687173</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>37.76326772822631</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>37.76326772822722</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>14.87302093962978</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.5563050353846</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>92.08224684282956</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>21.32765349005717</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>154.6903447266254</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.6903447266236</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>14.87302093962947</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>14.87302093962967</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>3.408393430826948</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>168.4966982176359</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>50.42283572747488</v>
+        <v>50.42283572747647</v>
       </c>
       <c r="Q38" t="n">
-        <v>543.9187084465404</v>
+        <v>543.9187084465407</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>14.8730209396295</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.5563050353846</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>97.07953882610138</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>76.89166555123711</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>159.5563050353847</v>
+        <v>14.87302093962973</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.56124994894361</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>420.7919365920961</v>
+        <v>90.39511108861984</v>
       </c>
       <c r="M43" t="n">
-        <v>414.6362901037694</v>
+        <v>414.6362901037692</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>417.4752271793752</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>159.5563050353847</v>
+        <v>14.87302093963035</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>256.9575244186798</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11466,16 +11466,16 @@
         <v>414.6362901037692</v>
       </c>
       <c r="N46" t="n">
-        <v>417.4752271793752</v>
+        <v>417.4752271793755</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>2.940883649539046</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.081327993723903</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.6858492721906</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>268.8491716889096</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.12209369564514</v>
+        <v>44.12209369564517</v>
       </c>
       <c r="T11" t="n">
         <v>210.4335432615606</v>
       </c>
       <c r="U11" t="n">
-        <v>256.494239352891</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>218.0901122974115</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4581658858720061</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.1736961797558</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7312490056928</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.86797449866764</v>
+        <v>64.86797449866765</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>144.3751931273315</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>37.3848789159737</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6071253188071</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>260.5071584222504</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>284.194941743288</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.12209369564515</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T14" t="n">
-        <v>210.4335432615606</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.494239352891</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5185895976435</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>168.5185895976421</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.1736961797558</v>
@@ -23673,7 +23673,7 @@
         <v>131.7312490056928</v>
       </c>
       <c r="I16" t="n">
-        <v>64.86797449866764</v>
+        <v>64.86797449866765</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>320.2263827165551</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>337.1147431152175</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.12209369564515</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T17" t="n">
         <v>210.4335432615606</v>
@@ -23791,16 +23791,16 @@
         <v>256.494239352891</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>86.90924372910294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>86.90924372910348</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.6858492721906</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>44.12209369564515</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T20" t="n">
-        <v>190.9343349268964</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U20" t="n">
         <v>256.494239352891</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>386.6685393513681</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>22.04126923043503</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>64.86797449866764</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>86.90924372910348</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.6858492721906</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>268.8491716889096</v>
+        <v>26.58737058366953</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>181.2066508723962</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>86.90924372910251</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>22.04126923043634</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>64.86797449866764</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>395.6858492721906</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>210.4335432615606</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>103.0400209292297</v>
       </c>
       <c r="W38" t="n">
-        <v>225.1568664929013</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>22.04126923043634</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>64.86797449866764</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>86.90924372910257</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>324.4011668302963</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H41" t="n">
         <v>268.8491716889096</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T41" t="n">
         <v>210.4335432615606</v>
       </c>
       <c r="U41" t="n">
-        <v>256.494239352891</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>21.08032093580852</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I43" t="n">
         <v>64.86797449866764</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.28100663787868</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>202.9201276938813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>275.2951884463579</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.6858492721906</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>268.8491716889096</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.4335432615606</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>300.0728533319265</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>147.5974564638734</v>
+        <v>163.1736961797558</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>64.86797449866765</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.3751931273316</v>
+        <v>87.74830874594193</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6071253188071</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>257009.9502253213</v>
+        <v>257009.9502253212</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354802.3988469419</v>
+        <v>354802.398846942</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354802.3988469419</v>
+        <v>354802.3988469421</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354802.3988469419</v>
+        <v>354802.3988469421</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354802.3988469419</v>
+        <v>354802.3988469421</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257009.9502253213</v>
+        <v>257009.9502253212</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>257009.9502253213</v>
+        <v>257009.9502253212</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484130.7854230572</v>
+        <v>484130.7854230573</v>
       </c>
       <c r="C2" t="n">
-        <v>484130.7854230572</v>
+        <v>484130.7854230573</v>
       </c>
       <c r="D2" t="n">
         <v>484130.7854230572</v>
       </c>
       <c r="E2" t="n">
-        <v>269540.8660989465</v>
+        <v>269540.8660989464</v>
       </c>
       <c r="F2" t="n">
-        <v>269540.8660989466</v>
+        <v>269540.8660989464</v>
       </c>
       <c r="G2" t="n">
         <v>341411.1305336289</v>
       </c>
       <c r="H2" t="n">
-        <v>341411.1305336288</v>
+        <v>341411.130533629</v>
       </c>
       <c r="I2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986279</v>
       </c>
       <c r="J2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="K2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="L2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986279</v>
       </c>
       <c r="M2" t="n">
-        <v>341411.1305336288</v>
+        <v>341411.130533629</v>
       </c>
       <c r="N2" t="n">
-        <v>341411.1305336288</v>
+        <v>341411.130533629</v>
       </c>
       <c r="O2" t="n">
-        <v>269540.8660989465</v>
+        <v>269540.8660989464</v>
       </c>
       <c r="P2" t="n">
         <v>269540.8660989464</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498789.9876771859</v>
+        <v>498789.9876771857</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52967.77881413959</v>
+        <v>52967.77881413975</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142010.0322153601</v>
+        <v>142010.03221536</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
+        <v>17042.1234224756</v>
+      </c>
+      <c r="F4" t="n">
         <v>17042.12342247558</v>
       </c>
-      <c r="F4" t="n">
-        <v>17042.12342247559</v>
-      </c>
       <c r="G4" t="n">
-        <v>50852.97866492692</v>
+        <v>50852.97866492695</v>
       </c>
       <c r="H4" t="n">
-        <v>50852.97866492691</v>
+        <v>50852.97866492697</v>
       </c>
       <c r="I4" t="n">
         <v>123548.2329998923</v>
@@ -26450,16 +26450,16 @@
         <v>123548.2329998923</v>
       </c>
       <c r="M4" t="n">
-        <v>50852.97866492689</v>
+        <v>50852.97866492698</v>
       </c>
       <c r="N4" t="n">
-        <v>50852.97866492689</v>
+        <v>50852.97866492697</v>
       </c>
       <c r="O4" t="n">
+        <v>17042.12342247558</v>
+      </c>
+      <c r="P4" t="n">
         <v>17042.12342247559</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17042.12342247558</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41676.9290637182</v>
+        <v>41676.92906371817</v>
       </c>
       <c r="F5" t="n">
-        <v>41676.9290637182</v>
+        <v>41676.92906371818</v>
       </c>
       <c r="G5" t="n">
-        <v>53426.71818716417</v>
+        <v>53426.71818716418</v>
       </c>
       <c r="H5" t="n">
-        <v>53426.71818716417</v>
+        <v>53426.71818716418</v>
       </c>
       <c r="I5" t="n">
-        <v>85895.79719444037</v>
+        <v>85895.79719444035</v>
       </c>
       <c r="J5" t="n">
         <v>85895.79719444035</v>
@@ -26499,16 +26499,16 @@
         <v>85895.79719444035</v>
       </c>
       <c r="L5" t="n">
-        <v>85895.79719444035</v>
+        <v>85895.79719444037</v>
       </c>
       <c r="M5" t="n">
-        <v>53426.71818716417</v>
+        <v>53426.71818716418</v>
       </c>
       <c r="N5" t="n">
-        <v>53426.71818716417</v>
+        <v>53426.71818716418</v>
       </c>
       <c r="O5" t="n">
-        <v>41676.9290637182</v>
+        <v>41676.92906371818</v>
       </c>
       <c r="P5" t="n">
         <v>41676.92906371818</v>
@@ -26521,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151772.4691112244</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="C6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="D6" t="n">
-        <v>151772.4691112244</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="E6" t="n">
-        <v>-287968.1740644331</v>
+        <v>-288580.0535368646</v>
       </c>
       <c r="F6" t="n">
-        <v>210821.8136127528</v>
+        <v>210209.934140321</v>
       </c>
       <c r="G6" t="n">
-        <v>184163.6548673982</v>
+        <v>183746.0193528981</v>
       </c>
       <c r="H6" t="n">
-        <v>237131.4336815377</v>
+        <v>236713.7981670379</v>
       </c>
       <c r="I6" t="n">
-        <v>144482.2084889349</v>
+        <v>144482.2084889352</v>
       </c>
       <c r="J6" t="n">
         <v>286492.2407042951</v>
@@ -26554,16 +26554,16 @@
         <v>286492.2407042952</v>
       </c>
       <c r="M6" t="n">
-        <v>237131.4336815377</v>
+        <v>236713.7981670379</v>
       </c>
       <c r="N6" t="n">
-        <v>237131.4336815377</v>
+        <v>236713.7981670379</v>
       </c>
       <c r="O6" t="n">
-        <v>210821.8136127528</v>
+        <v>210209.9341403211</v>
       </c>
       <c r="P6" t="n">
-        <v>210821.8136127527</v>
+        <v>210209.9341403211</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>422.3784429560552</v>
+        <v>422.3784429560549</v>
       </c>
       <c r="F3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.3784429560549</v>
       </c>
       <c r="G3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="H3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="I3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="J3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="K3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="L3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="M3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="N3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="O3" t="n">
-        <v>422.3784429560551</v>
+        <v>422.378442956055</v>
       </c>
       <c r="P3" t="n">
-        <v>422.378442956055</v>
+        <v>422.3784429560549</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.0309047249375</v>
+        <v>534.0309047249372</v>
       </c>
       <c r="F4" t="n">
-        <v>534.0309047249375</v>
+        <v>534.0309047249372</v>
       </c>
       <c r="G4" t="n">
-        <v>727.2840153079304</v>
+        <v>727.2840153079305</v>
       </c>
       <c r="H4" t="n">
-        <v>727.2840153079304</v>
+        <v>727.2840153079306</v>
       </c>
       <c r="I4" t="n">
         <v>1261.314920032868</v>
@@ -26822,13 +26822,13 @@
         <v>1261.314920032868</v>
       </c>
       <c r="M4" t="n">
-        <v>727.2840153079303</v>
+        <v>727.2840153079306</v>
       </c>
       <c r="N4" t="n">
-        <v>727.2840153079303</v>
+        <v>727.2840153079306</v>
       </c>
       <c r="O4" t="n">
-        <v>534.0309047249375</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="P4" t="n">
         <v>534.0309047249373</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>422.3784429560552</v>
+        <v>422.3784429560549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.0309047249374</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>193.2531105829928</v>
+        <v>193.2531105829934</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>534.0309047249376</v>
+        <v>534.0309047249372</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.0309047249374</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>193.2531105829928</v>
+        <v>193.2531105829934</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H11" t="n">
-        <v>17.38968132230632</v>
+        <v>17.38968132230631</v>
       </c>
       <c r="I11" t="n">
-        <v>65.46229114397315</v>
+        <v>65.4622911439731</v>
       </c>
       <c r="J11" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K11" t="n">
-        <v>215.9924497011912</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L11" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132166</v>
       </c>
       <c r="M11" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274668</v>
       </c>
       <c r="N11" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980151</v>
       </c>
       <c r="O11" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034653</v>
       </c>
       <c r="P11" t="n">
-        <v>244.1750676186309</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.3653068613897</v>
+        <v>183.3653068613896</v>
       </c>
       <c r="R11" t="n">
         <v>106.6622306224655</v>
       </c>
       <c r="S11" t="n">
-        <v>38.69326138235622</v>
+        <v>38.69326138235619</v>
       </c>
       <c r="T11" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131175</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1358403032622488</v>
+        <v>0.1358403032622487</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9085121225847225</v>
+        <v>0.9085121225847218</v>
       </c>
       <c r="H12" t="n">
-        <v>8.774314447068242</v>
+        <v>8.774314447068235</v>
       </c>
       <c r="I12" t="n">
-        <v>31.27991299250031</v>
+        <v>31.27991299250029</v>
       </c>
       <c r="J12" t="n">
-        <v>85.83447207279609</v>
+        <v>85.83447207279603</v>
       </c>
       <c r="K12" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L12" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M12" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N12" t="n">
-        <v>236.2888612155766</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O12" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361991</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.9707755074814</v>
+        <v>115.9707755074813</v>
       </c>
       <c r="R12" t="n">
-        <v>56.40744564609358</v>
+        <v>56.40744564609354</v>
       </c>
       <c r="S12" t="n">
-        <v>16.875214206782</v>
+        <v>16.87521420678199</v>
       </c>
       <c r="T12" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383153</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05977053438057387</v>
+        <v>0.05977053438057383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7616660446748534</v>
+        <v>0.761666044674853</v>
       </c>
       <c r="H13" t="n">
-        <v>6.77190356083643</v>
+        <v>6.771903560836425</v>
       </c>
       <c r="I13" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J13" t="n">
-        <v>53.84978935851214</v>
+        <v>53.8497893585121</v>
       </c>
       <c r="K13" t="n">
-        <v>88.49174591767841</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L13" t="n">
-        <v>113.2389681328414</v>
+        <v>113.2389681328413</v>
       </c>
       <c r="M13" t="n">
-        <v>119.3946146211682</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N13" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O13" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P13" t="n">
-        <v>92.1200459850386</v>
+        <v>92.12004598503854</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.77914488636433</v>
+        <v>63.77914488636429</v>
       </c>
       <c r="R13" t="n">
-        <v>34.24727506328932</v>
+        <v>34.24727506328929</v>
       </c>
       <c r="S13" t="n">
-        <v>13.27376188765176</v>
+        <v>13.27376188765175</v>
       </c>
       <c r="T13" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792553</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04154542061862842</v>
+        <v>0.04154542061862839</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H14" t="n">
-        <v>17.38968132230632</v>
+        <v>17.38968132230631</v>
       </c>
       <c r="I14" t="n">
-        <v>65.46229114397313</v>
+        <v>65.4622911439731</v>
       </c>
       <c r="J14" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K14" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L14" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M14" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274668</v>
       </c>
       <c r="N14" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O14" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034653</v>
       </c>
       <c r="P14" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q14" t="n">
         <v>183.3653068613897</v>
@@ -32025,10 +32025,10 @@
         <v>106.6622306224655</v>
       </c>
       <c r="S14" t="n">
-        <v>38.69326138235621</v>
+        <v>38.6932613823562</v>
       </c>
       <c r="T14" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131176</v>
       </c>
       <c r="U14" t="n">
         <v>0.1358403032622487</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.9085121225847219</v>
       </c>
       <c r="H15" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068237</v>
       </c>
       <c r="I15" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J15" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K15" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L15" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M15" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N15" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O15" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P15" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q15" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R15" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609355</v>
       </c>
       <c r="S15" t="n">
-        <v>16.875214206782</v>
+        <v>16.87521420678199</v>
       </c>
       <c r="T15" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383154</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H16" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836426</v>
       </c>
       <c r="I16" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J16" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K16" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L16" t="n">
         <v>113.2389681328414</v>
@@ -32168,28 +32168,28 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N16" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O16" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P16" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503856</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.77914488636431</v>
+        <v>63.77914488636429</v>
       </c>
       <c r="R16" t="n">
-        <v>34.24727506328931</v>
+        <v>34.24727506328929</v>
       </c>
       <c r="S16" t="n">
-        <v>13.27376188765176</v>
+        <v>13.27376188765175</v>
       </c>
       <c r="T16" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792553</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04154542061862841</v>
+        <v>0.0415454206186284</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H17" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I17" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J17" t="n">
         <v>144.1159492375537</v>
@@ -32241,19 +32241,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L17" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M17" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N17" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O17" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P17" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q17" t="n">
         <v>183.3653068613897</v>
@@ -32265,7 +32265,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T17" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U17" t="n">
         <v>0.1358403032622487</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H18" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I18" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J18" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K18" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L18" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M18" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N18" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O18" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q18" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R18" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S18" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T18" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H19" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I19" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J19" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K19" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L19" t="n">
         <v>113.2389681328414</v>
@@ -32405,25 +32405,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N19" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O19" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P19" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R19" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S19" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T19" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U19" t="n">
         <v>0.04154542061862841</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H20" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I20" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J20" t="n">
         <v>144.1159492375537</v>
@@ -32478,19 +32478,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L20" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M20" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N20" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O20" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P20" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q20" t="n">
         <v>183.3653068613897</v>
@@ -32502,7 +32502,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T20" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U20" t="n">
         <v>0.1358403032622487</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H21" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I21" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J21" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K21" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L21" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M21" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N21" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O21" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P21" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q21" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R21" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S21" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T21" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H22" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I22" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J22" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K22" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L22" t="n">
         <v>113.2389681328414</v>
@@ -32642,25 +32642,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N22" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O22" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P22" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R22" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S22" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T22" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U22" t="n">
         <v>0.04154542061862841</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H23" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I23" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J23" t="n">
         <v>144.1159492375537</v>
@@ -32715,19 +32715,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L23" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M23" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N23" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O23" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P23" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q23" t="n">
         <v>183.3653068613897</v>
@@ -32739,7 +32739,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T23" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U23" t="n">
         <v>0.1358403032622487</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H24" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I24" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J24" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K24" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L24" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M24" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N24" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O24" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q24" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R24" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S24" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T24" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H25" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I25" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J25" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K25" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L25" t="n">
         <v>113.2389681328414</v>
@@ -32879,25 +32879,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N25" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O25" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P25" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R25" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S25" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T25" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U25" t="n">
         <v>0.04154542061862841</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H26" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I26" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J26" t="n">
         <v>144.1159492375537</v>
@@ -32952,19 +32952,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L26" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M26" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N26" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O26" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P26" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q26" t="n">
         <v>183.3653068613897</v>
@@ -32976,7 +32976,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T26" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U26" t="n">
         <v>0.1358403032622487</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H27" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I27" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J27" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K27" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L27" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M27" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N27" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O27" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P27" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q27" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R27" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S27" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T27" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H28" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I28" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J28" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K28" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L28" t="n">
         <v>113.2389681328414</v>
@@ -33116,25 +33116,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N28" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O28" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P28" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R28" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S28" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T28" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U28" t="n">
         <v>0.04154542061862841</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H29" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I29" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J29" t="n">
         <v>144.1159492375537</v>
@@ -33189,19 +33189,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L29" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M29" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N29" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O29" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P29" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q29" t="n">
         <v>183.3653068613897</v>
@@ -33213,7 +33213,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T29" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U29" t="n">
         <v>0.1358403032622487</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H30" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I30" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J30" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K30" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L30" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M30" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N30" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O30" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P30" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q30" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R30" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S30" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T30" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H31" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I31" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J31" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K31" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L31" t="n">
         <v>113.2389681328414</v>
@@ -33353,25 +33353,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N31" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O31" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P31" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R31" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S31" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T31" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U31" t="n">
         <v>0.04154542061862841</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H32" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I32" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J32" t="n">
         <v>144.1159492375537</v>
@@ -33426,19 +33426,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L32" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M32" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N32" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O32" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P32" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q32" t="n">
         <v>183.3653068613897</v>
@@ -33450,7 +33450,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T32" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U32" t="n">
         <v>0.1358403032622487</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H33" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I33" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J33" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K33" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L33" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M33" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N33" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O33" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P33" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q33" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R33" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S33" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T33" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H34" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I34" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J34" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K34" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L34" t="n">
         <v>113.2389681328414</v>
@@ -33590,25 +33590,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N34" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O34" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P34" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R34" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S34" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T34" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U34" t="n">
         <v>0.04154542061862841</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H35" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I35" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J35" t="n">
         <v>144.1159492375537</v>
@@ -33663,19 +33663,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L35" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M35" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N35" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O35" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P35" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q35" t="n">
         <v>183.3653068613897</v>
@@ -33687,7 +33687,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T35" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U35" t="n">
         <v>0.1358403032622487</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H36" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I36" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J36" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K36" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L36" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M36" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N36" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O36" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P36" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q36" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R36" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S36" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T36" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H37" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I37" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J37" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K37" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L37" t="n">
         <v>113.2389681328414</v>
@@ -33827,25 +33827,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N37" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O37" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P37" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R37" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S37" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T37" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U37" t="n">
         <v>0.04154542061862841</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H38" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I38" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J38" t="n">
         <v>144.1159492375537</v>
@@ -33900,19 +33900,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L38" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M38" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N38" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O38" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P38" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q38" t="n">
         <v>183.3653068613897</v>
@@ -33924,7 +33924,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T38" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U38" t="n">
         <v>0.1358403032622487</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H39" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I39" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J39" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K39" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L39" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M39" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N39" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O39" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P39" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q39" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R39" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S39" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T39" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H40" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I40" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J40" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K40" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L40" t="n">
         <v>113.2389681328414</v>
@@ -34064,25 +34064,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N40" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O40" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P40" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R40" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S40" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T40" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U40" t="n">
         <v>0.04154542061862841</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.69800379077811</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H41" t="n">
         <v>17.38968132230632</v>
       </c>
       <c r="I41" t="n">
-        <v>65.46229114397313</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J41" t="n">
         <v>144.1159492375537</v>
@@ -34137,19 +34137,19 @@
         <v>215.9924497011911</v>
       </c>
       <c r="L41" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M41" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N41" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O41" t="n">
-        <v>286.0945362034655</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P41" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q41" t="n">
         <v>183.3653068613897</v>
@@ -34161,7 +34161,7 @@
         <v>38.69326138235621</v>
       </c>
       <c r="T41" t="n">
-        <v>7.433011594131179</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U41" t="n">
         <v>0.1358403032622487</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9085121225847224</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H42" t="n">
-        <v>8.774314447068241</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I42" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J42" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K42" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M42" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N42" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O42" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P42" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q42" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R42" t="n">
-        <v>56.40744564609357</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S42" t="n">
         <v>16.875214206782</v>
       </c>
       <c r="T42" t="n">
-        <v>3.661941406383156</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05977053438057386</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7616660446748533</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H43" t="n">
-        <v>6.771903560836429</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I43" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J43" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K43" t="n">
-        <v>88.4917459176784</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L43" t="n">
         <v>113.2389681328414</v>
@@ -34301,25 +34301,25 @@
         <v>119.3946146211681</v>
       </c>
       <c r="N43" t="n">
-        <v>116.555677545562</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O43" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P43" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.77914488636431</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R43" t="n">
-        <v>34.24727506328931</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S43" t="n">
         <v>13.27376188765176</v>
       </c>
       <c r="T43" t="n">
-        <v>3.254391281792555</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U43" t="n">
         <v>0.04154542061862841</v>
@@ -34362,31 +34362,31 @@
         <v>1.698003790778109</v>
       </c>
       <c r="H44" t="n">
-        <v>17.38968132230632</v>
+        <v>17.38968132230631</v>
       </c>
       <c r="I44" t="n">
-        <v>65.46229114397313</v>
+        <v>65.4622911439731</v>
       </c>
       <c r="J44" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K44" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L44" t="n">
         <v>267.9577332132167</v>
       </c>
       <c r="M44" t="n">
-        <v>298.1546081274669</v>
+        <v>298.1546081274668</v>
       </c>
       <c r="N44" t="n">
         <v>302.9790613980152</v>
       </c>
       <c r="O44" t="n">
-        <v>286.0945362034654</v>
+        <v>286.0945362034653</v>
       </c>
       <c r="P44" t="n">
-        <v>244.1750676186308</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q44" t="n">
         <v>183.3653068613897</v>
@@ -34395,10 +34395,10 @@
         <v>106.6622306224655</v>
       </c>
       <c r="S44" t="n">
-        <v>38.69326138235621</v>
+        <v>38.6932613823562</v>
       </c>
       <c r="T44" t="n">
-        <v>7.433011594131178</v>
+        <v>7.433011594131176</v>
       </c>
       <c r="U44" t="n">
         <v>0.1358403032622487</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9085121225847222</v>
+        <v>0.9085121225847219</v>
       </c>
       <c r="H45" t="n">
-        <v>8.774314447068239</v>
+        <v>8.774314447068237</v>
       </c>
       <c r="I45" t="n">
-        <v>31.27991299250031</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J45" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K45" t="n">
         <v>146.7047842859724</v>
@@ -34456,31 +34456,31 @@
         <v>197.2626869673538</v>
       </c>
       <c r="M45" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N45" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O45" t="n">
         <v>216.1581452361992</v>
       </c>
       <c r="P45" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q45" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R45" t="n">
-        <v>56.40744564609356</v>
+        <v>56.40744564609355</v>
       </c>
       <c r="S45" t="n">
-        <v>16.875214206782</v>
+        <v>16.87521420678199</v>
       </c>
       <c r="T45" t="n">
-        <v>3.661941406383155</v>
+        <v>3.661941406383154</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05977053438057385</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7616660446748532</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H46" t="n">
-        <v>6.771903560836428</v>
+        <v>6.771903560836426</v>
       </c>
       <c r="I46" t="n">
-        <v>22.90537523440378</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J46" t="n">
-        <v>53.84978935851213</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K46" t="n">
-        <v>88.49174591767839</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L46" t="n">
         <v>113.2389681328414</v>
@@ -34541,25 +34541,25 @@
         <v>116.5556775455619</v>
       </c>
       <c r="O46" t="n">
-        <v>107.6580332964057</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P46" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503856</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.77914488636431</v>
+        <v>63.77914488636429</v>
       </c>
       <c r="R46" t="n">
-        <v>34.2472750632893</v>
+        <v>34.24727506328929</v>
       </c>
       <c r="S46" t="n">
-        <v>13.27376188765176</v>
+        <v>13.27376188765175</v>
       </c>
       <c r="T46" t="n">
-        <v>3.254391281792554</v>
+        <v>3.254391281792553</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04154542061862841</v>
+        <v>0.0415454206186284</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.04966966484174</v>
+        <v>65.0496696648417</v>
       </c>
       <c r="J11" t="n">
-        <v>144.1159492375537</v>
+        <v>144.1159492375539</v>
       </c>
       <c r="K11" t="n">
-        <v>215.9924497011912</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L11" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132166</v>
       </c>
       <c r="M11" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N11" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980151</v>
       </c>
       <c r="O11" t="n">
-        <v>286.0945362034656</v>
+        <v>286.0945362034652</v>
       </c>
       <c r="P11" t="n">
-        <v>244.1750676186309</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q11" t="n">
         <v>183.3653068613899</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>57.60685557882113</v>
+        <v>57.6068555788211</v>
       </c>
       <c r="J12" t="n">
-        <v>85.8344720727961</v>
+        <v>100.7074930124269</v>
       </c>
       <c r="K12" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L12" t="n">
-        <v>197.2626869673539</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M12" t="n">
-        <v>230.1962514110501</v>
+        <v>230.1962514110498</v>
       </c>
       <c r="N12" t="n">
-        <v>251.1618821552058</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O12" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4859683907616</v>
+        <v>173.4859683907614</v>
       </c>
       <c r="Q12" t="n">
         <v>115.9707755074814</v>
       </c>
       <c r="R12" t="n">
-        <v>174.7637871555278</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.84978935851214</v>
+        <v>53.8497893585121</v>
       </c>
       <c r="K13" t="n">
-        <v>88.49174591767843</v>
+        <v>248.4614155283655</v>
       </c>
       <c r="L13" t="n">
-        <v>113.2389681328414</v>
+        <v>534.0309047249372</v>
       </c>
       <c r="M13" t="n">
-        <v>534.0309047249375</v>
+        <v>534.0309047249372</v>
       </c>
       <c r="N13" t="n">
-        <v>534.0309047249375</v>
+        <v>116.5556775455618</v>
       </c>
       <c r="O13" t="n">
-        <v>531.5663658477001</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P13" t="n">
-        <v>182.5151570736584</v>
+        <v>443.1371106015454</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.77914488636452</v>
+        <v>63.77914488636407</v>
       </c>
       <c r="R13" t="n">
-        <v>13.04363198160748</v>
+        <v>13.04363198160745</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.04966966484173</v>
+        <v>65.0496696648417</v>
       </c>
       <c r="J14" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K14" t="n">
-        <v>215.9924497011912</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L14" t="n">
         <v>267.9577332132169</v>
       </c>
       <c r="M14" t="n">
-        <v>298.1546081274671</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N14" t="n">
         <v>302.9790613980151</v>
       </c>
       <c r="O14" t="n">
-        <v>286.0945362034656</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P14" t="n">
-        <v>244.1750676186309</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q14" t="n">
         <v>183.3653068613896</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>31.27991299250031</v>
+        <v>57.60685557882111</v>
       </c>
       <c r="J15" t="n">
-        <v>245.3907771081808</v>
+        <v>219.0638345218604</v>
       </c>
       <c r="K15" t="n">
         <v>146.7047842859724</v>
@@ -35734,10 +35734,10 @@
         <v>197.2626869673538</v>
       </c>
       <c r="M15" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110498</v>
       </c>
       <c r="N15" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O15" t="n">
         <v>216.1581452361993</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.84978935851214</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K16" t="n">
-        <v>88.4917459176784</v>
+        <v>178.886857006298</v>
       </c>
       <c r="L16" t="n">
-        <v>534.0309047249375</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M16" t="n">
-        <v>534.0309047249376</v>
+        <v>534.0309047249372</v>
       </c>
       <c r="N16" t="n">
-        <v>534.0309047249375</v>
+        <v>534.0309047249372</v>
       </c>
       <c r="O16" t="n">
-        <v>201.1695403442238</v>
+        <v>531.5663658476999</v>
       </c>
       <c r="P16" t="n">
         <v>92.12004598503859</v>
@@ -35828,7 +35828,7 @@
         <v>63.77914488636452</v>
       </c>
       <c r="R16" t="n">
-        <v>13.04363198160747</v>
+        <v>13.04363198160746</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J17" t="n">
-        <v>583.7671486849456</v>
+        <v>583.7671486849455</v>
       </c>
       <c r="K17" t="n">
-        <v>215.9924497011912</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L17" t="n">
-        <v>267.9577332132169</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M17" t="n">
         <v>298.1546081274669</v>
@@ -35904,7 +35904,7 @@
         <v>244.1750676186307</v>
       </c>
       <c r="Q17" t="n">
-        <v>338.0556515880139</v>
+        <v>338.0556515880148</v>
       </c>
       <c r="R17" t="n">
         <v>277.5249222922198</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>57.60685557882113</v>
+        <v>57.60685557882112</v>
       </c>
       <c r="J18" t="n">
-        <v>85.83447207279607</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K18" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L18" t="n">
         <v>197.2626869673538</v>
@@ -35974,10 +35974,10 @@
         <v>230.19625141105</v>
       </c>
       <c r="N18" t="n">
-        <v>251.1618821552059</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O18" t="n">
-        <v>216.1581452361993</v>
+        <v>231.0311661758288</v>
       </c>
       <c r="P18" t="n">
         <v>173.4859683907616</v>
@@ -36047,13 +36047,13 @@
         <v>366.0255384137749</v>
       </c>
       <c r="L19" t="n">
-        <v>428.1102064056739</v>
+        <v>535.673192140883</v>
       </c>
       <c r="M19" t="n">
-        <v>583.5197329857268</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N19" t="n">
-        <v>563.2817413411626</v>
+        <v>455.7187556059541</v>
       </c>
       <c r="O19" t="n">
         <v>107.6580332964058</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J20" t="n">
-        <v>583.7671486849456</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K20" t="n">
-        <v>215.9924497011912</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L20" t="n">
-        <v>267.9577332132169</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M20" t="n">
-        <v>298.1546081274669</v>
+        <v>298.154608127467</v>
       </c>
       <c r="N20" t="n">
         <v>302.9790613980153</v>
@@ -36138,10 +36138,10 @@
         <v>286.0945362034654</v>
       </c>
       <c r="P20" t="n">
-        <v>398.8654123452548</v>
+        <v>294.5979033461072</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.3653068613899</v>
+        <v>727.2840153079305</v>
       </c>
       <c r="R20" t="n">
         <v>277.5249222922198</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>31.27991299250031</v>
+        <v>57.6068555788211</v>
       </c>
       <c r="J21" t="n">
-        <v>245.3907771081807</v>
+        <v>100.7074930124255</v>
       </c>
       <c r="K21" t="n">
         <v>146.7047842859724</v>
@@ -36223,7 +36223,7 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R21" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555278</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>53.84978935851214</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K22" t="n">
-        <v>91.90013934850577</v>
+        <v>185.5712847437797</v>
       </c>
       <c r="L22" t="n">
         <v>535.6731921408829</v>
       </c>
       <c r="M22" t="n">
-        <v>583.5197329857268</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N22" t="n">
         <v>563.2817413411626</v>
@@ -36296,10 +36296,10 @@
         <v>531.5663658477001</v>
       </c>
       <c r="P22" t="n">
-        <v>443.1371106015454</v>
+        <v>92.12004598503836</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.77914488636452</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R22" t="n">
         <v>13.04363198160747</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J23" t="n">
-        <v>144.1159492375537</v>
+        <v>583.7671486849455</v>
       </c>
       <c r="K23" t="n">
-        <v>215.9924497011912</v>
+        <v>1058.770522386219</v>
       </c>
       <c r="L23" t="n">
-        <v>267.9577332132168</v>
+        <v>305.7210009414432</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.314920032868</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N23" t="n">
-        <v>1073.486522485466</v>
+        <v>302.9790613980153</v>
       </c>
       <c r="O23" t="n">
-        <v>1261.314920032868</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P23" t="n">
-        <v>244.1750676186311</v>
+        <v>1080.851708864486</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.3653068613894</v>
+        <v>735.3842825771417</v>
       </c>
       <c r="R23" t="n">
         <v>277.5249222922193</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>31.2799129925003</v>
+        <v>57.60685557882111</v>
       </c>
       <c r="J24" t="n">
-        <v>85.83447207279607</v>
+        <v>100.7074930124259</v>
       </c>
       <c r="K24" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L24" t="n">
         <v>197.2626869673538</v>
       </c>
       <c r="M24" t="n">
-        <v>389.7525564464345</v>
+        <v>230.19625141105</v>
       </c>
       <c r="N24" t="n">
-        <v>236.2888612155766</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O24" t="n">
         <v>216.1581452361993</v>
@@ -36460,7 +36460,7 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R24" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>53.84978935851214</v>
+        <v>53.84978935851213</v>
       </c>
       <c r="K25" t="n">
-        <v>180.5739927605079</v>
+        <v>366.0255384137749</v>
       </c>
       <c r="L25" t="n">
-        <v>535.6731921408827</v>
+        <v>535.673192140883</v>
       </c>
       <c r="M25" t="n">
-        <v>583.5197329857268</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N25" t="n">
-        <v>563.2817413411626</v>
+        <v>563.2817413411628</v>
       </c>
       <c r="O25" t="n">
         <v>531.5663658477001</v>
       </c>
       <c r="P25" t="n">
-        <v>443.1371106015454</v>
+        <v>257.6855649482782</v>
       </c>
       <c r="Q25" t="n">
         <v>63.77914488636452</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J26" t="n">
-        <v>144.1159492375537</v>
+        <v>583.7671486849455</v>
       </c>
       <c r="K26" t="n">
-        <v>215.9924497011912</v>
+        <v>1058.770522386219</v>
       </c>
       <c r="L26" t="n">
-        <v>624.9899611684623</v>
+        <v>267.9577332132169</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.314920032868</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N26" t="n">
         <v>302.9790613980153</v>
       </c>
       <c r="O26" t="n">
-        <v>286.0945362034654</v>
+        <v>323.8578039316917</v>
       </c>
       <c r="P26" t="n">
         <v>1080.851708864486</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>31.27991299250031</v>
+        <v>57.60685557882111</v>
       </c>
       <c r="J27" t="n">
-        <v>85.83447207279607</v>
+        <v>100.7074930124259</v>
       </c>
       <c r="K27" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L27" t="n">
         <v>197.2626869673538</v>
@@ -36694,10 +36694,10 @@
         <v>173.4859683907616</v>
       </c>
       <c r="Q27" t="n">
-        <v>275.5270805428661</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R27" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.84978935851213</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K28" t="n">
-        <v>180.573992760508</v>
+        <v>366.025538413775</v>
       </c>
       <c r="L28" t="n">
-        <v>535.6731921408827</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M28" t="n">
-        <v>583.5197329857268</v>
+        <v>563.1564921192667</v>
       </c>
       <c r="N28" t="n">
         <v>563.2817413411626</v>
@@ -36770,10 +36770,10 @@
         <v>531.5663658477001</v>
       </c>
       <c r="P28" t="n">
-        <v>443.1371106015454</v>
+        <v>443.1371106015458</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.77914488636452</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R28" t="n">
         <v>13.04363198160747</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J29" t="n">
-        <v>482.9866738296249</v>
+        <v>583.7671486849455</v>
       </c>
       <c r="K29" t="n">
         <v>1058.770522386219</v>
       </c>
       <c r="L29" t="n">
-        <v>267.9577332132167</v>
+        <v>305.7210009414432</v>
       </c>
       <c r="M29" t="n">
         <v>298.1546081274669</v>
@@ -36846,10 +36846,10 @@
         <v>302.9790613980153</v>
       </c>
       <c r="O29" t="n">
-        <v>1261.314920032868</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P29" t="n">
-        <v>244.1750676186307</v>
+        <v>1080.851708864486</v>
       </c>
       <c r="Q29" t="n">
         <v>735.3842825771417</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>31.27991299250031</v>
+        <v>57.60685557882111</v>
       </c>
       <c r="J30" t="n">
-        <v>85.83447207279607</v>
+        <v>100.7074930124259</v>
       </c>
       <c r="K30" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L30" t="n">
         <v>197.2626869673538</v>
@@ -36925,7 +36925,7 @@
         <v>236.2888612155765</v>
       </c>
       <c r="O30" t="n">
-        <v>375.7144502715839</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P30" t="n">
         <v>173.4859683907616</v>
@@ -36934,7 +36934,7 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R30" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>53.84978935851213</v>
       </c>
       <c r="K31" t="n">
-        <v>180.573992760508</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L31" t="n">
-        <v>535.6731921408827</v>
+        <v>457.8637472015586</v>
       </c>
       <c r="M31" t="n">
-        <v>583.5197329857268</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N31" t="n">
         <v>563.2817413411626</v>
@@ -37007,10 +37007,10 @@
         <v>531.5663658477001</v>
       </c>
       <c r="P31" t="n">
-        <v>443.1371106015454</v>
+        <v>443.1371106015458</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.77914488636452</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R31" t="n">
         <v>13.04363198160747</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J32" t="n">
-        <v>583.7671486849456</v>
+        <v>583.7671486849455</v>
       </c>
       <c r="K32" t="n">
         <v>1058.770522386219</v>
       </c>
       <c r="L32" t="n">
-        <v>305.721000941443</v>
+        <v>267.9577332132169</v>
       </c>
       <c r="M32" t="n">
         <v>298.1546081274669</v>
@@ -37083,7 +37083,7 @@
         <v>302.9790613980153</v>
       </c>
       <c r="O32" t="n">
-        <v>286.0945362034654</v>
+        <v>323.8578039316926</v>
       </c>
       <c r="P32" t="n">
         <v>1080.851708864486</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>31.27991299250031</v>
+        <v>57.60685557882113</v>
       </c>
       <c r="J33" t="n">
-        <v>85.83447207279607</v>
+        <v>100.7074930124259</v>
       </c>
       <c r="K33" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L33" t="n">
         <v>197.2626869673538</v>
@@ -37168,10 +37168,10 @@
         <v>173.4859683907616</v>
       </c>
       <c r="Q33" t="n">
-        <v>275.5270805428661</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R33" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>53.84978935851213</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K34" t="n">
-        <v>180.573992760508</v>
+        <v>366.025538413775</v>
       </c>
       <c r="L34" t="n">
         <v>535.6731921408827</v>
       </c>
       <c r="M34" t="n">
-        <v>583.5197329857268</v>
+        <v>140.7222681112253</v>
       </c>
       <c r="N34" t="n">
         <v>563.2817413411626</v>
@@ -37244,10 +37244,10 @@
         <v>531.5663658477001</v>
       </c>
       <c r="P34" t="n">
-        <v>443.1371106015454</v>
+        <v>443.1371106015458</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.77914488636452</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R34" t="n">
         <v>13.04363198160747</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J35" t="n">
-        <v>583.7671486849456</v>
+        <v>583.7671486849455</v>
       </c>
       <c r="K35" t="n">
-        <v>215.9924497011912</v>
+        <v>370.6827944278165</v>
       </c>
       <c r="L35" t="n">
-        <v>267.9577332132169</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M35" t="n">
         <v>298.1546081274669</v>
@@ -37326,7 +37326,7 @@
         <v>244.1750676186307</v>
       </c>
       <c r="Q35" t="n">
-        <v>338.0556515880135</v>
+        <v>183.3653068613899</v>
       </c>
       <c r="R35" t="n">
         <v>277.5249222922198</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>57.60685557882112</v>
+        <v>57.6068555788211</v>
       </c>
       <c r="J36" t="n">
-        <v>100.7074930124255</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K36" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L36" t="n">
         <v>197.2626869673538</v>
@@ -37399,13 +37399,13 @@
         <v>236.2888612155765</v>
       </c>
       <c r="O36" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P36" t="n">
         <v>173.4859683907616</v>
       </c>
       <c r="Q36" t="n">
-        <v>115.9707755074814</v>
+        <v>130.8437964471111</v>
       </c>
       <c r="R36" t="n">
         <v>174.7637871555278</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>53.84978935851213</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K37" t="n">
-        <v>91.90013934850533</v>
+        <v>88.49174591767834</v>
       </c>
       <c r="L37" t="n">
-        <v>535.6731921408829</v>
+        <v>281.7356663504772</v>
       </c>
       <c r="M37" t="n">
-        <v>583.5197329857268</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N37" t="n">
         <v>563.2817413411626</v>
@@ -37484,7 +37484,7 @@
         <v>443.1371106015454</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.77914488636452</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R37" t="n">
         <v>13.04363198160747</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J38" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K38" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L38" t="n">
-        <v>267.9577332132168</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M38" t="n">
         <v>298.154608127467</v>
@@ -37560,10 +37560,10 @@
         <v>286.0945362034654</v>
       </c>
       <c r="P38" t="n">
-        <v>294.5979033461058</v>
+        <v>294.5979033461072</v>
       </c>
       <c r="Q38" t="n">
-        <v>727.2840153079303</v>
+        <v>727.2840153079305</v>
       </c>
       <c r="R38" t="n">
         <v>277.5249222922198</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>31.27991299250031</v>
+        <v>57.6068555788211</v>
       </c>
       <c r="J39" t="n">
-        <v>85.83447207279607</v>
+        <v>100.7074930124255</v>
       </c>
       <c r="K39" t="n">
-        <v>146.7047842859725</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L39" t="n">
         <v>197.2626869673538</v>
@@ -37636,16 +37636,16 @@
         <v>236.2888612155765</v>
       </c>
       <c r="O39" t="n">
-        <v>216.1581452361992</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P39" t="n">
         <v>173.4859683907616</v>
       </c>
       <c r="Q39" t="n">
-        <v>275.5270805428661</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R39" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555278</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>53.84978935851213</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K40" t="n">
-        <v>366.0255384137749</v>
+        <v>185.5712847437797</v>
       </c>
       <c r="L40" t="n">
-        <v>535.6731921408827</v>
+        <v>535.6731921408829</v>
       </c>
       <c r="M40" t="n">
         <v>583.5197329857267</v>
@@ -37718,10 +37718,10 @@
         <v>531.5663658477001</v>
       </c>
       <c r="P40" t="n">
-        <v>169.0117115362759</v>
+        <v>92.12004598503836</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.77914488636452</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R40" t="n">
         <v>13.04363198160747</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>65.04966966484173</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J41" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K41" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L41" t="n">
         <v>267.9577332132168</v>
       </c>
       <c r="M41" t="n">
-        <v>298.154608127467</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N41" t="n">
         <v>302.9790613980153</v>
@@ -37797,10 +37797,10 @@
         <v>286.0945362034654</v>
       </c>
       <c r="P41" t="n">
-        <v>244.1750676186309</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.3653068613896</v>
+        <v>183.3653068613899</v>
       </c>
       <c r="R41" t="n">
         <v>106.6622306224654</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>31.27991299250031</v>
+        <v>57.60685557882112</v>
       </c>
       <c r="J42" t="n">
-        <v>245.3907771081808</v>
+        <v>100.7074930124258</v>
       </c>
       <c r="K42" t="n">
         <v>146.7047842859724</v>
@@ -37873,7 +37873,7 @@
         <v>236.2888612155765</v>
       </c>
       <c r="O42" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P42" t="n">
         <v>173.4859683907616</v>
@@ -37882,7 +37882,7 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R42" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555278</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>117.4110393074558</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K43" t="n">
-        <v>366.0255384137749</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L43" t="n">
-        <v>534.0309047249375</v>
+        <v>203.6340792214612</v>
       </c>
       <c r="M43" t="n">
-        <v>534.0309047249375</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="N43" t="n">
-        <v>116.555677545562</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="O43" t="n">
-        <v>107.6580332964056</v>
+        <v>531.5663658476999</v>
       </c>
       <c r="P43" t="n">
         <v>92.12004598503859</v>
       </c>
       <c r="Q43" t="n">
-        <v>233.6708366685182</v>
+        <v>63.77914488636452</v>
       </c>
       <c r="R43" t="n">
         <v>13.04363198160747</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.04966966484173</v>
+        <v>65.0496696648417</v>
       </c>
       <c r="J44" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K44" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L44" t="n">
-        <v>267.9577332132169</v>
+        <v>267.9577332132168</v>
       </c>
       <c r="M44" t="n">
         <v>298.1546081274669</v>
       </c>
       <c r="N44" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980151</v>
       </c>
       <c r="O44" t="n">
         <v>286.0945362034654</v>
@@ -38037,7 +38037,7 @@
         <v>244.1750676186307</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.3653068613899</v>
+        <v>183.3653068613896</v>
       </c>
       <c r="R44" t="n">
         <v>106.6622306224654</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>31.27991299250031</v>
+        <v>57.60685557882112</v>
       </c>
       <c r="J45" t="n">
-        <v>245.3907771081808</v>
+        <v>100.7074930124264</v>
       </c>
       <c r="K45" t="n">
         <v>146.7047842859724</v>
@@ -38104,13 +38104,13 @@
         <v>197.2626869673538</v>
       </c>
       <c r="M45" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110498</v>
       </c>
       <c r="N45" t="n">
         <v>236.2888612155765</v>
       </c>
       <c r="O45" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P45" t="n">
         <v>173.4859683907616</v>
@@ -38119,7 +38119,7 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R45" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>141.3040167975928</v>
       </c>
       <c r="K46" t="n">
-        <v>345.4492703363582</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L46" t="n">
         <v>113.2389681328414</v>
@@ -38186,19 +38186,19 @@
         <v>534.0309047249373</v>
       </c>
       <c r="N46" t="n">
-        <v>534.0309047249373</v>
+        <v>534.0309047249374</v>
       </c>
       <c r="O46" t="n">
-        <v>107.6580332964056</v>
+        <v>531.5663658477001</v>
       </c>
       <c r="P46" t="n">
-        <v>92.12004598503859</v>
+        <v>92.12004598503836</v>
       </c>
       <c r="Q46" t="n">
-        <v>233.6708366685182</v>
+        <v>66.72002853590357</v>
       </c>
       <c r="R46" t="n">
-        <v>13.04363198160747</v>
+        <v>13.04363198160746</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
